--- a/output_files/cl_1_rollreg.xlsx
+++ b/output_files/cl_1_rollreg.xlsx
@@ -16,7 +16,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
+  <si>
+    <t>GLC RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>GLC CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qGlucose (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rGLC</t>
+  </si>
+  <si>
+    <t>LAC RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>LAC CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qLactate (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rLAC</t>
+  </si>
+  <si>
+    <t>GLN RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>GLN CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qGlutamine (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rGLN</t>
+  </si>
+  <si>
+    <t>ASN RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>ASN CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qAsparagine (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rASN</t>
+  </si>
+  <si>
+    <t>ASP RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>ASP CONC. MID. (mM)</t>
+  </si>
+  <si>
+    <t>Roll. Poly. Reg. Order: 3 Window: 6 qAspartate (mmol/109 cell/hr)</t>
+  </si>
+  <si>
+    <t>rASP</t>
+  </si>
+  <si>
+    <t>CELL RUN TIME (HOURS)</t>
+  </si>
+  <si>
+    <t>Sp. Growth (1/hr)</t>
+  </si>
+  <si>
+    <t>mu_max</t>
+  </si>
+  <si>
+    <t>N0</t>
+  </si>
+  <si>
+    <t>K_mu</t>
+  </si>
   <si>
     <t>Roll. Poly. Reg DL/DG (mmol/mmol)</t>
   </si>
@@ -379,113 +454,1088 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>11.94166666666667</v>
+      </c>
+      <c r="B2">
+        <v>26.464468065914</v>
+      </c>
+      <c r="C2">
+        <v>0.1834812573705179</v>
+      </c>
+      <c r="D2">
+        <v>114.6757858565737</v>
+      </c>
+      <c r="E2">
+        <v>11.94166666666667</v>
+      </c>
+      <c r="F2">
+        <v>1.465363731582055</v>
+      </c>
+      <c r="G2">
+        <v>0.3009835510280379</v>
+      </c>
+      <c r="H2">
+        <v>188.1147193925237</v>
+      </c>
+      <c r="I2">
+        <v>11.94166666666667</v>
+      </c>
+      <c r="J2">
+        <v>2.17198511773186</v>
+      </c>
+      <c r="K2">
+        <v>0.04118624386382463</v>
+      </c>
+      <c r="L2">
+        <v>25.74140241489039</v>
+      </c>
+      <c r="M2">
+        <v>11.94166666666667</v>
+      </c>
+      <c r="N2">
+        <v>3.674615393087304</v>
+      </c>
+      <c r="O2">
+        <v>-0.004131016721703069</v>
+      </c>
+      <c r="P2">
+        <v>-2.581885451064418</v>
+      </c>
+      <c r="Q2">
+        <v>11.94166666666667</v>
+      </c>
+      <c r="R2">
+        <v>1.543170093981413</v>
+      </c>
+      <c r="S2">
+        <v>-0.007188736871754157</v>
+      </c>
+      <c r="T2">
+        <v>-4.492960544846348</v>
+      </c>
+      <c r="U2">
+        <v>11.94166666666667</v>
+      </c>
+      <c r="V2">
+        <v>0.04394406957217239</v>
+      </c>
+      <c r="W2">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X2">
+        <v>0.246</v>
+      </c>
+      <c r="Y2">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z2">
         <v>1.640404885716684</v>
       </c>
-      <c r="B2">
+      <c r="AA2">
         <v>0.2244711228496438</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:27">
       <c r="A3">
+        <v>31.21666666666667</v>
+      </c>
+      <c r="B3">
+        <v>24.70071390833653</v>
+      </c>
+      <c r="C3">
+        <v>0.2077165476659233</v>
+      </c>
+      <c r="D3">
+        <v>129.822842291202</v>
+      </c>
+      <c r="E3">
+        <v>31.21666666666667</v>
+      </c>
+      <c r="F3">
+        <v>4.910391771465919</v>
+      </c>
+      <c r="G3">
+        <v>0.3582981921821558</v>
+      </c>
+      <c r="H3">
+        <v>223.9363701138474</v>
+      </c>
+      <c r="I3">
+        <v>31.21666666666667</v>
+      </c>
+      <c r="J3">
+        <v>1.783616778959595</v>
+      </c>
+      <c r="K3">
+        <v>0.03817137209917944</v>
+      </c>
+      <c r="L3">
+        <v>23.85710756198715</v>
+      </c>
+      <c r="M3">
+        <v>31.21666666666667</v>
+      </c>
+      <c r="N3">
+        <v>3.698616547930725</v>
+      </c>
+      <c r="O3">
+        <v>-0.001171397856565125</v>
+      </c>
+      <c r="P3">
+        <v>-0.7321236603532029</v>
+      </c>
+      <c r="Q3">
+        <v>31.21666666666667</v>
+      </c>
+      <c r="R3">
+        <v>1.606874380638957</v>
+      </c>
+      <c r="S3">
+        <v>-0.005655473617463895</v>
+      </c>
+      <c r="T3">
+        <v>-3.534671010914934</v>
+      </c>
+      <c r="U3">
+        <v>31.21666666666667</v>
+      </c>
+      <c r="V3">
+        <v>0.04287186115226366</v>
+      </c>
+      <c r="W3">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X3">
+        <v>0.246</v>
+      </c>
+      <c r="Y3">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z3">
         <v>1.724938124614017</v>
       </c>
-      <c r="B3">
+      <c r="AA3">
         <v>0.1837666402995085</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4">
+        <v>43.06666666666666</v>
+      </c>
+      <c r="B4">
+        <v>22.72044665611333</v>
+      </c>
+      <c r="C4">
+        <v>0.1730135009637663</v>
+      </c>
+      <c r="D4">
+        <v>108.1334381023539</v>
+      </c>
+      <c r="E4">
+        <v>43.06666666666666</v>
+      </c>
+      <c r="F4">
+        <v>7.913183818061047</v>
+      </c>
+      <c r="G4">
+        <v>0.2789828406523852</v>
+      </c>
+      <c r="H4">
+        <v>174.3642754077407</v>
+      </c>
+      <c r="I4">
+        <v>43.06666666666666</v>
+      </c>
+      <c r="J4">
+        <v>1.434904112022561</v>
+      </c>
+      <c r="K4">
+        <v>0.0279970938975286</v>
+      </c>
+      <c r="L4">
+        <v>17.49818368595538</v>
+      </c>
+      <c r="M4">
+        <v>43.06666666666666</v>
+      </c>
+      <c r="N4">
+        <v>3.692636417845637</v>
+      </c>
+      <c r="O4">
+        <v>0.0009382019411371182</v>
+      </c>
+      <c r="P4">
+        <v>0.5863762132106988</v>
+      </c>
+      <c r="Q4">
+        <v>43.06666666666666</v>
+      </c>
+      <c r="R4">
+        <v>1.652805673072606</v>
+      </c>
+      <c r="S4">
+        <v>-0.003589309885880224</v>
+      </c>
+      <c r="T4">
+        <v>-2.24331867867514</v>
+      </c>
+      <c r="U4">
+        <v>43.06666666666666</v>
+      </c>
+      <c r="V4">
+        <v>0.04164200225948948</v>
+      </c>
+      <c r="W4">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X4">
+        <v>0.246</v>
+      </c>
+      <c r="Y4">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z4">
         <v>1.612491736762276</v>
       </c>
-      <c r="B4">
+      <c r="AA4">
         <v>0.16182028420656</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:27">
       <c r="A5">
+        <v>55.11666666666667</v>
+      </c>
+      <c r="B5">
+        <v>19.42147724616814</v>
+      </c>
+      <c r="C5">
+        <v>0.1213339760705</v>
+      </c>
+      <c r="D5">
+        <v>75.83373504406251</v>
+      </c>
+      <c r="E5">
+        <v>55.11666666666667</v>
+      </c>
+      <c r="F5">
+        <v>12.53990666316147</v>
+      </c>
+      <c r="G5">
+        <v>0.1784590864404688</v>
+      </c>
+      <c r="H5">
+        <v>111.536929025293</v>
+      </c>
+      <c r="I5">
+        <v>55.11666666666667</v>
+      </c>
+      <c r="J5">
+        <v>0.9892218385020177</v>
+      </c>
+      <c r="K5">
+        <v>0.01563388392753554</v>
+      </c>
+      <c r="L5">
+        <v>9.771177454709713</v>
+      </c>
+      <c r="M5">
+        <v>55.11666666666667</v>
+      </c>
+      <c r="N5">
+        <v>3.658841120921864</v>
+      </c>
+      <c r="O5">
+        <v>0.001254621641783432</v>
+      </c>
+      <c r="P5">
+        <v>0.7841385261146452</v>
+      </c>
+      <c r="Q5">
+        <v>55.11666666666667</v>
+      </c>
+      <c r="R5">
+        <v>1.703068834307836</v>
+      </c>
+      <c r="S5">
+        <v>-0.002056715149285784</v>
+      </c>
+      <c r="T5">
+        <v>-1.285446968303615</v>
+      </c>
+      <c r="U5">
+        <v>55.11666666666667</v>
+      </c>
+      <c r="V5">
+        <v>0.03966574665568444</v>
+      </c>
+      <c r="W5">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X5">
+        <v>0.246</v>
+      </c>
+      <c r="Y5">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z5">
         <v>1.470808855194663</v>
       </c>
-      <c r="B5">
+      <c r="AA5">
         <v>0.128850009155322</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:27">
       <c r="A6">
+        <v>67.2</v>
+      </c>
+      <c r="B6">
+        <v>16.194188310282</v>
+      </c>
+      <c r="C6">
+        <v>0.06535148068426014</v>
+      </c>
+      <c r="D6">
+        <v>40.84467542766259</v>
+      </c>
+      <c r="E6">
+        <v>67.2</v>
+      </c>
+      <c r="F6">
+        <v>17.3965773173135</v>
+      </c>
+      <c r="G6">
+        <v>0.0642986662467135</v>
+      </c>
+      <c r="H6">
+        <v>40.18666640419594</v>
+      </c>
+      <c r="I6">
+        <v>67.2</v>
+      </c>
+      <c r="J6">
+        <v>0.5557338106397609</v>
+      </c>
+      <c r="K6">
+        <v>0.01170466310903404</v>
+      </c>
+      <c r="L6">
+        <v>7.315414443146272</v>
+      </c>
+      <c r="M6">
+        <v>67.2</v>
+      </c>
+      <c r="N6">
+        <v>3.585214936184679</v>
+      </c>
+      <c r="O6">
+        <v>0.004551270612492784</v>
+      </c>
+      <c r="P6">
+        <v>2.844544132807989</v>
+      </c>
+      <c r="Q6">
+        <v>67.2</v>
+      </c>
+      <c r="R6">
+        <v>1.742328358187362</v>
+      </c>
+      <c r="S6">
+        <v>0.001035393129494717</v>
+      </c>
+      <c r="T6">
+        <v>0.6471207059341979</v>
+      </c>
+      <c r="U6">
+        <v>67.2</v>
+      </c>
+      <c r="V6">
+        <v>0.03667052682460685</v>
+      </c>
+      <c r="W6">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X6">
+        <v>0.246</v>
+      </c>
+      <c r="Y6">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z6">
         <v>0.983889968115134</v>
       </c>
-      <c r="B6">
+      <c r="AA6">
         <v>0.1791032580513986</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:27">
       <c r="A7">
+        <v>83.64166666666667</v>
+      </c>
+      <c r="B7">
+        <v>18.99827682456566</v>
+      </c>
+      <c r="C7">
+        <v>0.0491456412222712</v>
+      </c>
+      <c r="D7">
+        <v>30.7160257639195</v>
+      </c>
+      <c r="E7">
+        <v>83.64166666666667</v>
+      </c>
+      <c r="F7">
+        <v>18.87903781676443</v>
+      </c>
+      <c r="G7">
+        <v>0.01177918859392358</v>
+      </c>
+      <c r="H7">
+        <v>7.361992871202239</v>
+      </c>
+      <c r="I7">
+        <v>83.64166666666667</v>
+      </c>
+      <c r="J7">
+        <v>0.7642962741627783</v>
+      </c>
+      <c r="K7">
+        <v>0.006685496454028435</v>
+      </c>
+      <c r="L7">
+        <v>4.178435283767771</v>
+      </c>
+      <c r="M7">
+        <v>83.64166666666667</v>
+      </c>
+      <c r="N7">
+        <v>3.296424940256451</v>
+      </c>
+      <c r="O7">
+        <v>0.006369661632534023</v>
+      </c>
+      <c r="P7">
+        <v>3.981038520333764</v>
+      </c>
+      <c r="Q7">
+        <v>83.64166666666667</v>
+      </c>
+      <c r="R7">
+        <v>1.595585395961333</v>
+      </c>
+      <c r="S7">
+        <v>0.002120172289833798</v>
+      </c>
+      <c r="T7">
+        <v>1.325107681146124</v>
+      </c>
+      <c r="U7">
+        <v>83.64166666666667</v>
+      </c>
+      <c r="V7">
+        <v>0.03064650032770702</v>
+      </c>
+      <c r="W7">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X7">
+        <v>0.246</v>
+      </c>
+      <c r="Y7">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z7">
         <v>0.23967921266201</v>
       </c>
-      <c r="B7">
+      <c r="AA7">
         <v>0.136034372281194</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:27">
       <c r="A8">
+        <v>108.3166666666667</v>
+      </c>
+      <c r="B8">
+        <v>20.12793520596943</v>
+      </c>
+      <c r="C8">
+        <v>0.03686007708012692</v>
+      </c>
+      <c r="D8">
+        <v>23.03754817507933</v>
+      </c>
+      <c r="E8">
+        <v>108.3166666666667</v>
+      </c>
+      <c r="F8">
+        <v>18.70717928508854</v>
+      </c>
+      <c r="G8">
+        <v>-0.002946617693043906</v>
+      </c>
+      <c r="H8">
+        <v>-1.841636058152441</v>
+      </c>
+      <c r="I8">
+        <v>108.3166666666667</v>
+      </c>
+      <c r="J8">
+        <v>0.5895448632384097</v>
+      </c>
+      <c r="K8">
+        <v>0.00330388519688149</v>
+      </c>
+      <c r="L8">
+        <v>2.064928248050931</v>
+      </c>
+      <c r="M8">
+        <v>108.3166666666667</v>
+      </c>
+      <c r="N8">
+        <v>2.28683443110722</v>
+      </c>
+      <c r="O8">
+        <v>0.00585710389900579</v>
+      </c>
+      <c r="P8">
+        <v>3.660689936878618</v>
+      </c>
+      <c r="Q8">
+        <v>108.3166666666667</v>
+      </c>
+      <c r="R8">
+        <v>1.153346650057292</v>
+      </c>
+      <c r="S8">
+        <v>0.002199715412266986</v>
+      </c>
+      <c r="T8">
+        <v>1.374822132666866</v>
+      </c>
+      <c r="U8">
+        <v>108.3166666666667</v>
+      </c>
+      <c r="V8">
+        <v>0.01872977464335854</v>
+      </c>
+      <c r="W8">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X8">
+        <v>0.246</v>
+      </c>
+      <c r="Y8">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z8">
         <v>-0.07994062754232743</v>
       </c>
-      <c r="B8">
+      <c r="AA8">
         <v>0.08963316028068689</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:27">
       <c r="A9">
+        <v>132.4666666666667</v>
+      </c>
+      <c r="B9">
+        <v>18.11168022664036</v>
+      </c>
+      <c r="C9">
+        <v>0.03358088357625979</v>
+      </c>
+      <c r="D9">
+        <v>20.98805223516237</v>
+      </c>
+      <c r="E9">
+        <v>132.4666666666667</v>
+      </c>
+      <c r="F9">
+        <v>17.32794827745582</v>
+      </c>
+      <c r="G9">
+        <v>-0.001084426473982014</v>
+      </c>
+      <c r="H9">
+        <v>-0.6777665462387586</v>
+      </c>
+      <c r="I9">
+        <v>132.4666666666667</v>
+      </c>
+      <c r="J9">
+        <v>0.5407002798615287</v>
+      </c>
+      <c r="K9">
+        <v>0.002325461204036661</v>
+      </c>
+      <c r="L9">
+        <v>1.453413252522913</v>
+      </c>
+      <c r="M9">
+        <v>132.4666666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.918624854376985</v>
+      </c>
+      <c r="O9">
+        <v>0.003685249405817284</v>
+      </c>
+      <c r="P9">
+        <v>2.303280878635802</v>
+      </c>
+      <c r="Q9">
+        <v>132.4666666666667</v>
+      </c>
+      <c r="R9">
+        <v>0.5422862257784896</v>
+      </c>
+      <c r="S9">
+        <v>0.001475050693567205</v>
+      </c>
+      <c r="T9">
+        <v>0.9219066834795029</v>
+      </c>
+      <c r="U9">
+        <v>132.4666666666667</v>
+      </c>
+      <c r="V9">
+        <v>0.008782411740088534</v>
+      </c>
+      <c r="W9">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X9">
+        <v>0.246</v>
+      </c>
+      <c r="Y9">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z9">
         <v>-0.03229297024062392</v>
       </c>
-      <c r="B9">
+      <c r="AA9">
         <v>0.06924955380508986</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:27">
       <c r="A10">
+        <v>155.6166666666667</v>
+      </c>
+      <c r="B10">
+        <v>14.90986038821066</v>
+      </c>
+      <c r="C10">
+        <v>0.03406530122389032</v>
+      </c>
+      <c r="D10">
+        <v>21.29081326493145</v>
+      </c>
+      <c r="E10">
+        <v>155.6166666666667</v>
+      </c>
+      <c r="F10">
+        <v>17.20131752677454</v>
+      </c>
+      <c r="G10">
+        <v>0.004388685080093958</v>
+      </c>
+      <c r="H10">
+        <v>2.742928175058724</v>
+      </c>
+      <c r="I10">
+        <v>155.6166666666667</v>
+      </c>
+      <c r="J10">
+        <v>0.5091771775394567</v>
+      </c>
+      <c r="K10">
+        <v>0.002150016757665581</v>
+      </c>
+      <c r="L10">
+        <v>1.343760473540988</v>
+      </c>
+      <c r="M10">
+        <v>155.6166666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.2800599798058893</v>
+      </c>
+      <c r="O10">
+        <v>0.001686196919114053</v>
+      </c>
+      <c r="P10">
+        <v>1.053873074446283</v>
+      </c>
+      <c r="Q10">
+        <v>155.6166666666667</v>
+      </c>
+      <c r="R10">
+        <v>0.1678304547239682</v>
+      </c>
+      <c r="S10">
+        <v>0.0007098825881335767</v>
+      </c>
+      <c r="T10">
+        <v>0.4436766175834854</v>
+      </c>
+      <c r="U10">
+        <v>155.6166666666667</v>
+      </c>
+      <c r="V10">
+        <v>0.003567551714932859</v>
+      </c>
+      <c r="W10">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X10">
+        <v>0.246</v>
+      </c>
+      <c r="Y10">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z10">
         <v>0.1288315359740936</v>
       </c>
-      <c r="B10">
+      <c r="AA10">
         <v>0.06311456762219247</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:27">
       <c r="A11">
+        <v>179.7</v>
+      </c>
+      <c r="B11">
+        <v>10.0896485861317</v>
+      </c>
+      <c r="C11">
+        <v>0.03442044162858311</v>
+      </c>
+      <c r="D11">
+        <v>21.51277601786444</v>
+      </c>
+      <c r="E11">
+        <v>179.7</v>
+      </c>
+      <c r="F11">
+        <v>19.11219846278705</v>
+      </c>
+      <c r="G11">
+        <v>0.004427999513151144</v>
+      </c>
+      <c r="H11">
+        <v>2.767499695719465</v>
+      </c>
+      <c r="I11">
+        <v>179.7</v>
+      </c>
+      <c r="J11">
+        <v>0.4830917874396135</v>
+      </c>
+      <c r="K11">
+        <v>0.002051207355454922</v>
+      </c>
+      <c r="L11">
+        <v>1.282004597159326</v>
+      </c>
+      <c r="M11">
+        <v>179.7</v>
+      </c>
+      <c r="N11">
+        <v>0.289091406254552</v>
+      </c>
+      <c r="O11">
+        <v>0.0006621887311945289</v>
+      </c>
+      <c r="P11">
+        <v>0.4138679569965806</v>
+      </c>
+      <c r="Q11">
+        <v>179.7</v>
+      </c>
+      <c r="R11">
+        <v>0.1137129147213207</v>
+      </c>
+      <c r="S11">
+        <v>0.0001552387745850354</v>
+      </c>
+      <c r="T11">
+        <v>0.09702423411564713</v>
+      </c>
+      <c r="U11">
+        <v>179.7</v>
+      </c>
+      <c r="V11">
+        <v>0.001281320083908523</v>
+      </c>
+      <c r="W11">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X11">
+        <v>0.246</v>
+      </c>
+      <c r="Y11">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z11">
         <v>0.1286444712398485</v>
       </c>
-      <c r="B11">
+      <c r="AA11">
         <v>0.05959270882078333</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:27">
       <c r="A12">
+        <v>203.825</v>
+      </c>
+      <c r="B12">
+        <v>6.992934237822492</v>
+      </c>
+      <c r="C12">
+        <v>0.03027958695467629</v>
+      </c>
+      <c r="D12">
+        <v>18.92474184667268</v>
+      </c>
+      <c r="E12">
+        <v>203.825</v>
+      </c>
+      <c r="F12">
+        <v>18.30150628948467</v>
+      </c>
+      <c r="G12">
+        <v>-0.004015451500344308</v>
+      </c>
+      <c r="H12">
+        <v>-2.509657187715193</v>
+      </c>
+      <c r="I12">
+        <v>203.825</v>
+      </c>
+      <c r="J12">
+        <v>0.5034183026171031</v>
+      </c>
+      <c r="K12">
+        <v>0.002153444289245687</v>
+      </c>
+      <c r="L12">
+        <v>1.345902680778554</v>
+      </c>
+      <c r="M12">
+        <v>203.825</v>
+      </c>
+      <c r="N12">
+        <v>0.2950658329977944</v>
+      </c>
+      <c r="O12">
+        <v>0.001149803892700284</v>
+      </c>
+      <c r="P12">
+        <v>0.7186274329376776</v>
+      </c>
+      <c r="Q12">
+        <v>203.825</v>
+      </c>
+      <c r="R12">
+        <v>0.1193174430503174</v>
+      </c>
+      <c r="S12">
+        <v>0.0001745563284707532</v>
+      </c>
+      <c r="T12">
+        <v>0.1090977052942207</v>
+      </c>
+      <c r="U12">
+        <v>203.825</v>
+      </c>
+      <c r="V12">
+        <v>0.0004435730439771102</v>
+      </c>
+      <c r="W12">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X12">
+        <v>0.246</v>
+      </c>
+      <c r="Y12">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z12">
         <v>-0.1326124925797303</v>
       </c>
-      <c r="B12">
+      <c r="AA12">
         <v>0.07111868112563917</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:27">
       <c r="A13">
+        <v>224.5583333333333</v>
+      </c>
+      <c r="B13">
+        <v>9.05984273277512</v>
+      </c>
+      <c r="C13">
+        <v>0.02318411194981003</v>
+      </c>
+      <c r="D13">
+        <v>14.49006996863127</v>
+      </c>
+      <c r="E13">
+        <v>224.5583333333333</v>
+      </c>
+      <c r="F13">
+        <v>13.9836210143302</v>
+      </c>
+      <c r="G13">
+        <v>-0.0150918656558993</v>
+      </c>
+      <c r="H13">
+        <v>-9.432416034937059</v>
+      </c>
+      <c r="I13">
+        <v>224.5583333333333</v>
+      </c>
+      <c r="J13">
+        <v>0.6184213634691763</v>
+      </c>
+      <c r="K13">
+        <v>0.002713581109321976</v>
+      </c>
+      <c r="L13">
+        <v>1.695988193326235</v>
+      </c>
+      <c r="M13">
+        <v>224.5583333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.2890512877137544</v>
+      </c>
+      <c r="O13">
+        <v>0.001735132421533526</v>
+      </c>
+      <c r="P13">
+        <v>1.084457763458454</v>
+      </c>
+      <c r="Q13">
+        <v>224.5583333333333</v>
+      </c>
+      <c r="R13">
+        <v>0.1557641739920306</v>
+      </c>
+      <c r="S13">
+        <v>0.0001644805070737605</v>
+      </c>
+      <c r="T13">
+        <v>0.1028003169211003</v>
+      </c>
+      <c r="U13">
+        <v>224.5583333333333</v>
+      </c>
+      <c r="V13">
+        <v>0.0001764117102281301</v>
+      </c>
+      <c r="W13">
+        <v>0.04476135883990286</v>
+      </c>
+      <c r="X13">
+        <v>0.246</v>
+      </c>
+      <c r="Y13">
+        <v>22.81960602815294</v>
+      </c>
+      <c r="Z13">
         <v>-0.6509572455727795</v>
       </c>
-      <c r="B13">
+      <c r="AA13">
         <v>0.1170448587893491</v>
       </c>
     </row>
@@ -496,113 +1546,1088 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="B2">
+        <v>28.42936829163183</v>
+      </c>
+      <c r="C2">
+        <v>0.1897606017704693</v>
+      </c>
+      <c r="D2">
+        <v>118.6003761065433</v>
+      </c>
+      <c r="E2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="F2">
+        <v>1.667090200926862</v>
+      </c>
+      <c r="G2">
+        <v>0.2843124502742514</v>
+      </c>
+      <c r="H2">
+        <v>177.6952814214071</v>
+      </c>
+      <c r="I2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="J2">
+        <v>2.100308984183639</v>
+      </c>
+      <c r="K2">
+        <v>0.03965904920017282</v>
+      </c>
+      <c r="L2">
+        <v>24.78690575010802</v>
+      </c>
+      <c r="M2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="N2">
+        <v>3.479567020252242</v>
+      </c>
+      <c r="O2">
+        <v>-0.002184222505994564</v>
+      </c>
+      <c r="P2">
+        <v>-1.365139066246603</v>
+      </c>
+      <c r="Q2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="R2">
+        <v>1.472260221648305</v>
+      </c>
+      <c r="S2">
+        <v>-0.004063896948943472</v>
+      </c>
+      <c r="T2">
+        <v>-2.53993559308967</v>
+      </c>
+      <c r="U2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="V2">
+        <v>0.04493930625021484</v>
+      </c>
+      <c r="W2">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X2">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y2">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z2">
         <v>1.498269122365823</v>
       </c>
-      <c r="B2">
+      <c r="AA2">
         <v>0.2089951698622016</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:27">
       <c r="A3">
+        <v>31.275</v>
+      </c>
+      <c r="B3">
+        <v>26.2298617443655</v>
+      </c>
+      <c r="C3">
+        <v>0.2427734357845277</v>
+      </c>
+      <c r="D3">
+        <v>151.7333973653298</v>
+      </c>
+      <c r="E3">
+        <v>31.275</v>
+      </c>
+      <c r="F3">
+        <v>5.125782804030545</v>
+      </c>
+      <c r="G3">
+        <v>0.4068334750122556</v>
+      </c>
+      <c r="H3">
+        <v>254.2709218826597</v>
+      </c>
+      <c r="I3">
+        <v>31.275</v>
+      </c>
+      <c r="J3">
+        <v>1.716040161530316</v>
+      </c>
+      <c r="K3">
+        <v>0.03486120472895438</v>
+      </c>
+      <c r="L3">
+        <v>21.78825295559648</v>
+      </c>
+      <c r="M3">
+        <v>31.275</v>
+      </c>
+      <c r="N3">
+        <v>3.465086636856814</v>
+      </c>
+      <c r="O3">
+        <v>0.005076124068074053</v>
+      </c>
+      <c r="P3">
+        <v>3.172577542546283</v>
+      </c>
+      <c r="Q3">
+        <v>31.275</v>
+      </c>
+      <c r="R3">
+        <v>1.508792205589297</v>
+      </c>
+      <c r="S3">
+        <v>-0.002964176279557481</v>
+      </c>
+      <c r="T3">
+        <v>-1.852610174723426</v>
+      </c>
+      <c r="U3">
+        <v>31.275</v>
+      </c>
+      <c r="V3">
+        <v>0.0438098392672609</v>
+      </c>
+      <c r="W3">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X3">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y3">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z3">
         <v>1.675774261288366</v>
       </c>
-      <c r="B3">
+      <c r="AA3">
         <v>0.1435956311130154</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="B4">
+        <v>23.80973081328169</v>
+      </c>
+      <c r="C4">
+        <v>0.1853680038786832</v>
+      </c>
+      <c r="D4">
+        <v>115.855002424177</v>
+      </c>
+      <c r="E4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="F4">
+        <v>9.023998574097746</v>
+      </c>
+      <c r="G4">
+        <v>0.2943732631511236</v>
+      </c>
+      <c r="H4">
+        <v>183.9832894694522</v>
+      </c>
+      <c r="I4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="J4">
+        <v>1.370222162167103</v>
+      </c>
+      <c r="K4">
+        <v>0.02464282307825796</v>
+      </c>
+      <c r="L4">
+        <v>15.40176442391123</v>
+      </c>
+      <c r="M4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.405847417493205</v>
+      </c>
+      <c r="O4">
+        <v>0.003265202043140597</v>
+      </c>
+      <c r="P4">
+        <v>2.040751276962873</v>
+      </c>
+      <c r="Q4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="R4">
+        <v>1.522967504258866</v>
+      </c>
+      <c r="S4">
+        <v>-0.002629480646360249</v>
+      </c>
+      <c r="T4">
+        <v>-1.643425403975156</v>
+      </c>
+      <c r="U4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="V4">
+        <v>0.04248740177528522</v>
+      </c>
+      <c r="W4">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X4">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y4">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z4">
         <v>1.588047866900377</v>
       </c>
-      <c r="B4">
+      <c r="AA4">
         <v>0.132940003466757</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:27">
       <c r="A5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="B5">
+        <v>20.46135896207117</v>
+      </c>
+      <c r="C5">
+        <v>0.1189004068394862</v>
+      </c>
+      <c r="D5">
+        <v>74.31275427467889</v>
+      </c>
+      <c r="E5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="F5">
+        <v>14.08198868738775</v>
+      </c>
+      <c r="G5">
+        <v>0.1757383511853912</v>
+      </c>
+      <c r="H5">
+        <v>109.8364694908695</v>
+      </c>
+      <c r="I5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="J5">
+        <v>0.9594640232729618</v>
+      </c>
+      <c r="K5">
+        <v>0.01417745708103262</v>
+      </c>
+      <c r="L5">
+        <v>8.860910675645387</v>
+      </c>
+      <c r="M5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.38224963183466</v>
+      </c>
+      <c r="O5">
+        <v>-0.0006775743718176682</v>
+      </c>
+      <c r="P5">
+        <v>-0.4234839823860426</v>
+      </c>
+      <c r="Q5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="R5">
+        <v>1.597131498797995</v>
+      </c>
+      <c r="S5">
+        <v>-0.003167834269610398</v>
+      </c>
+      <c r="T5">
+        <v>-1.979896418506498</v>
+      </c>
+      <c r="U5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="V5">
+        <v>0.04035718812494822</v>
+      </c>
+      <c r="W5">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X5">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y5">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z5">
         <v>1.478029855882961</v>
       </c>
-      <c r="B5">
+      <c r="AA5">
         <v>0.1192380872184228</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:27">
       <c r="A6">
+        <v>67.5</v>
+      </c>
+      <c r="B6">
+        <v>17.10531498267722</v>
+      </c>
+      <c r="C6">
+        <v>0.06267603333529424</v>
+      </c>
+      <c r="D6">
+        <v>39.1725208345589</v>
+      </c>
+      <c r="E6">
+        <v>67.5</v>
+      </c>
+      <c r="F6">
+        <v>18.51234037107843</v>
+      </c>
+      <c r="G6">
+        <v>0.05435191493901046</v>
+      </c>
+      <c r="H6">
+        <v>33.96994683688153</v>
+      </c>
+      <c r="I6">
+        <v>67.5</v>
+      </c>
+      <c r="J6">
+        <v>0.54330777358046</v>
+      </c>
+      <c r="K6">
+        <v>0.01072374995219135</v>
+      </c>
+      <c r="L6">
+        <v>6.702343720119594</v>
+      </c>
+      <c r="M6">
+        <v>67.5</v>
+      </c>
+      <c r="N6">
+        <v>3.382289949086196</v>
+      </c>
+      <c r="O6">
+        <v>0.00325856390920353</v>
+      </c>
+      <c r="P6">
+        <v>2.036602443252206</v>
+      </c>
+      <c r="Q6">
+        <v>67.5</v>
+      </c>
+      <c r="R6">
+        <v>1.674832103704135</v>
+      </c>
+      <c r="S6">
+        <v>0.0004445194098927675</v>
+      </c>
+      <c r="T6">
+        <v>0.2778246311829797</v>
+      </c>
+      <c r="U6">
+        <v>67.5</v>
+      </c>
+      <c r="V6">
+        <v>0.03706427657467494</v>
+      </c>
+      <c r="W6">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X6">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y6">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z6">
         <v>0.867188174596935</v>
       </c>
-      <c r="B6">
+      <c r="AA6">
         <v>0.1710980957397726</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:27">
       <c r="A7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="B7">
+        <v>19.88006394760853</v>
+      </c>
+      <c r="C7">
+        <v>0.04745741976692774</v>
+      </c>
+      <c r="D7">
+        <v>29.66088735432984</v>
+      </c>
+      <c r="E7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="F7">
+        <v>19.68637318540577</v>
+      </c>
+      <c r="G7">
+        <v>0.01051137649104322</v>
+      </c>
+      <c r="H7">
+        <v>6.569610306902013</v>
+      </c>
+      <c r="I7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="J7">
+        <v>0.752460106266575</v>
+      </c>
+      <c r="K7">
+        <v>0.006607339639935214</v>
+      </c>
+      <c r="L7">
+        <v>4.129587274959508</v>
+      </c>
+      <c r="M7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="N7">
+        <v>3.160538481273304</v>
+      </c>
+      <c r="O7">
+        <v>0.005983903038855839</v>
+      </c>
+      <c r="P7">
+        <v>3.739939399284899</v>
+      </c>
+      <c r="Q7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="R7">
+        <v>1.549463204045768</v>
+      </c>
+      <c r="S7">
+        <v>0.001881883900394574</v>
+      </c>
+      <c r="T7">
+        <v>1.176177437746609</v>
+      </c>
+      <c r="U7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="V7">
+        <v>0.03042702720823747</v>
+      </c>
+      <c r="W7">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X7">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y7">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z7">
         <v>0.2214906866548277</v>
       </c>
-      <c r="B7">
+      <c r="AA7">
         <v>0.1392266935788986</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:27">
       <c r="A8">
+        <v>108.75</v>
+      </c>
+      <c r="B8">
+        <v>21.17297861495428</v>
+      </c>
+      <c r="C8">
+        <v>0.03635002947426386</v>
+      </c>
+      <c r="D8">
+        <v>22.71876842141491</v>
+      </c>
+      <c r="E8">
+        <v>108.75</v>
+      </c>
+      <c r="F8">
+        <v>19.40477370168196</v>
+      </c>
+      <c r="G8">
+        <v>-0.003870504697224041</v>
+      </c>
+      <c r="H8">
+        <v>-2.419065435765026</v>
+      </c>
+      <c r="I8">
+        <v>108.75</v>
+      </c>
+      <c r="J8">
+        <v>0.5842087431335032</v>
+      </c>
+      <c r="K8">
+        <v>0.003290642982662169</v>
+      </c>
+      <c r="L8">
+        <v>2.056651864163856</v>
+      </c>
+      <c r="M8">
+        <v>108.75</v>
+      </c>
+      <c r="N8">
+        <v>2.215023482284372</v>
+      </c>
+      <c r="O8">
+        <v>0.005422382780312451</v>
+      </c>
+      <c r="P8">
+        <v>3.388989237695282</v>
+      </c>
+      <c r="Q8">
+        <v>108.75</v>
+      </c>
+      <c r="R8">
+        <v>1.144308189635978</v>
+      </c>
+      <c r="S8">
+        <v>0.002082651662361101</v>
+      </c>
+      <c r="T8">
+        <v>1.301657288975688</v>
+      </c>
+      <c r="U8">
+        <v>108.75</v>
+      </c>
+      <c r="V8">
+        <v>0.0179367597421665</v>
+      </c>
+      <c r="W8">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X8">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y8">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z8">
         <v>-0.1064787223890531</v>
       </c>
-      <c r="B8">
+      <c r="AA8">
         <v>0.09052655610615042</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:27">
       <c r="A9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="B9">
+        <v>19.04122798973047</v>
+      </c>
+      <c r="C9">
+        <v>0.03306306960575398</v>
+      </c>
+      <c r="D9">
+        <v>20.66441850359624</v>
+      </c>
+      <c r="E9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="F9">
+        <v>17.77951770963337</v>
+      </c>
+      <c r="G9">
+        <v>-0.0007457836876509657</v>
+      </c>
+      <c r="H9">
+        <v>-0.4661148047818535</v>
+      </c>
+      <c r="I9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="J9">
+        <v>0.5396263269136846</v>
+      </c>
+      <c r="K9">
+        <v>0.002218777105075077</v>
+      </c>
+      <c r="L9">
+        <v>1.386735690671923</v>
+      </c>
+      <c r="M9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.9815495242529314</v>
+      </c>
+      <c r="O9">
+        <v>0.003352771854998026</v>
+      </c>
+      <c r="P9">
+        <v>2.095482409373766</v>
+      </c>
+      <c r="Q9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="R9">
+        <v>0.5490867889118785</v>
+      </c>
+      <c r="S9">
+        <v>0.001451772454262378</v>
+      </c>
+      <c r="T9">
+        <v>0.9073577839139859</v>
+      </c>
+      <c r="U9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="V9">
+        <v>0.00811455429849694</v>
+      </c>
+      <c r="W9">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X9">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y9">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z9">
         <v>-0.02255639589861846</v>
       </c>
-      <c r="B9">
+      <c r="AA9">
         <v>0.06710741414913704</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:27">
       <c r="A10">
+        <v>155.8</v>
+      </c>
+      <c r="B10">
+        <v>15.07013198223396</v>
+      </c>
+      <c r="C10">
+        <v>0.03403886284502689</v>
+      </c>
+      <c r="D10">
+        <v>21.27428927814181</v>
+      </c>
+      <c r="E10">
+        <v>155.8</v>
+      </c>
+      <c r="F10">
+        <v>17.89920657673548</v>
+      </c>
+      <c r="G10">
+        <v>0.005335600438979069</v>
+      </c>
+      <c r="H10">
+        <v>3.334750274361918</v>
+      </c>
+      <c r="I10">
+        <v>155.8</v>
+      </c>
+      <c r="J10">
+        <v>0.5094851842665351</v>
+      </c>
+      <c r="K10">
+        <v>0.002051045057977245</v>
+      </c>
+      <c r="L10">
+        <v>1.281903161235778</v>
+      </c>
+      <c r="M10">
+        <v>155.8</v>
+      </c>
+      <c r="N10">
+        <v>0.3528510201203962</v>
+      </c>
+      <c r="O10">
+        <v>0.001661038761792541</v>
+      </c>
+      <c r="P10">
+        <v>1.038149226120338</v>
+      </c>
+      <c r="Q10">
+        <v>155.8</v>
+      </c>
+      <c r="R10">
+        <v>0.138720015096389</v>
+      </c>
+      <c r="S10">
+        <v>0.0007144915587298448</v>
+      </c>
+      <c r="T10">
+        <v>0.446557224206153</v>
+      </c>
+      <c r="U10">
+        <v>155.8</v>
+      </c>
+      <c r="V10">
+        <v>0.003185513008352371</v>
+      </c>
+      <c r="W10">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X10">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y10">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z10">
         <v>0.1567502552382888</v>
       </c>
-      <c r="B10">
+      <c r="AA10">
         <v>0.06025598056302001</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:27">
       <c r="A11">
+        <v>180.05</v>
+      </c>
+      <c r="B11">
+        <v>9.916290341002073</v>
+      </c>
+      <c r="C11">
+        <v>0.03361173513579165</v>
+      </c>
+      <c r="D11">
+        <v>21.00733445986978</v>
+      </c>
+      <c r="E11">
+        <v>180.05</v>
+      </c>
+      <c r="F11">
+        <v>20.66833765244071</v>
+      </c>
+      <c r="G11">
+        <v>0.006553343100653763</v>
+      </c>
+      <c r="H11">
+        <v>4.095839437908602</v>
+      </c>
+      <c r="I11">
+        <v>180.05</v>
+      </c>
+      <c r="J11">
+        <v>0.4830917874396135</v>
+      </c>
+      <c r="K11">
+        <v>0.002057808261715355</v>
+      </c>
+      <c r="L11">
+        <v>1.286130163572097</v>
+      </c>
+      <c r="M11">
+        <v>180.05</v>
+      </c>
+      <c r="N11">
+        <v>0.2854315670333831</v>
+      </c>
+      <c r="O11">
+        <v>0.000860299533741198</v>
+      </c>
+      <c r="P11">
+        <v>0.5376872085882487</v>
+      </c>
+      <c r="Q11">
+        <v>180.05</v>
+      </c>
+      <c r="R11">
+        <v>0.09259908407781983</v>
+      </c>
+      <c r="S11">
+        <v>9.136595868026578E-05</v>
+      </c>
+      <c r="T11">
+        <v>0.05710372417516611</v>
+      </c>
+      <c r="U11">
+        <v>180.05</v>
+      </c>
+      <c r="V11">
+        <v>0.001101272354029181</v>
+      </c>
+      <c r="W11">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X11">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y11">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z11">
         <v>0.1949718773570662</v>
       </c>
-      <c r="B11">
+      <c r="AA11">
         <v>0.06122291078999029</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:27">
       <c r="A12">
+        <v>204.175</v>
+      </c>
+      <c r="B12">
+        <v>7.383975873326262</v>
+      </c>
+      <c r="C12">
+        <v>0.03247098287569329</v>
+      </c>
+      <c r="D12">
+        <v>20.29436429730831</v>
+      </c>
+      <c r="E12">
+        <v>204.175</v>
+      </c>
+      <c r="F12">
+        <v>20.31517195283536</v>
+      </c>
+      <c r="G12">
+        <v>-0.003760214771943125</v>
+      </c>
+      <c r="H12">
+        <v>-2.350134232464453</v>
+      </c>
+      <c r="I12">
+        <v>204.175</v>
+      </c>
+      <c r="J12">
+        <v>0.5051834813064325</v>
+      </c>
+      <c r="K12">
+        <v>0.002350104858533906</v>
+      </c>
+      <c r="L12">
+        <v>1.468815536583691</v>
+      </c>
+      <c r="M12">
+        <v>204.175</v>
+      </c>
+      <c r="N12">
+        <v>0.2636299245727226</v>
+      </c>
+      <c r="O12">
+        <v>0.001252343001673166</v>
+      </c>
+      <c r="P12">
+        <v>0.7827143760457288</v>
+      </c>
+      <c r="Q12">
+        <v>204.175</v>
+      </c>
+      <c r="R12">
+        <v>0.1435141449835863</v>
+      </c>
+      <c r="S12">
+        <v>6.974854161599345E-05</v>
+      </c>
+      <c r="T12">
+        <v>0.04359283850999591</v>
+      </c>
+      <c r="U12">
+        <v>204.175</v>
+      </c>
+      <c r="V12">
+        <v>0.0003710097893812097</v>
+      </c>
+      <c r="W12">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X12">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y12">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z12">
         <v>-0.1158023083667695</v>
       </c>
-      <c r="B12">
+      <c r="AA12">
         <v>0.07237553810830646</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:27">
       <c r="A13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="B13">
+        <v>8.658554785932171</v>
+      </c>
+      <c r="C13">
+        <v>0.03274771334299254</v>
+      </c>
+      <c r="D13">
+        <v>20.46732083937034</v>
+      </c>
+      <c r="E13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="F13">
+        <v>16.00635362067607</v>
+      </c>
+      <c r="G13">
+        <v>-0.01669810892572607</v>
+      </c>
+      <c r="H13">
+        <v>-10.43631807857879</v>
+      </c>
+      <c r="I13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="J13">
+        <v>0.6248344051266331</v>
+      </c>
+      <c r="K13">
+        <v>0.002810780639181395</v>
+      </c>
+      <c r="L13">
+        <v>1.756737899488372</v>
+      </c>
+      <c r="M13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.2621983335887245</v>
+      </c>
+      <c r="O13">
+        <v>0.001618940838388643</v>
+      </c>
+      <c r="P13">
+        <v>1.011838023992902</v>
+      </c>
+      <c r="Q13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="R13">
+        <v>0.1793845107701748</v>
+      </c>
+      <c r="S13">
+        <v>0.000225986148890575</v>
+      </c>
+      <c r="T13">
+        <v>0.1412413430566093</v>
+      </c>
+      <c r="U13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="V13">
+        <v>0.0001450095720218679</v>
+      </c>
+      <c r="W13">
+        <v>0.04577032625094275</v>
+      </c>
+      <c r="X13">
+        <v>0.2415557830092118</v>
+      </c>
+      <c r="Y13">
+        <v>22.83088499460615</v>
+      </c>
+      <c r="Z13">
         <v>-0.5099015235303195</v>
       </c>
-      <c r="B13">
+      <c r="AA13">
         <v>0.08583135591001059</v>
       </c>
     </row>
@@ -613,113 +2638,1088 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="B2">
+        <v>29.52335563705086</v>
+      </c>
+      <c r="C2">
+        <v>0.2280999939334092</v>
+      </c>
+      <c r="D2">
+        <v>142.5624962083807</v>
+      </c>
+      <c r="E2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="F2">
+        <v>1.717937207502978</v>
+      </c>
+      <c r="G2">
+        <v>0.4168563042415773</v>
+      </c>
+      <c r="H2">
+        <v>260.5351901509858</v>
+      </c>
+      <c r="I2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="J2">
+        <v>2.04545251875395</v>
+      </c>
+      <c r="K2">
+        <v>0.04914358600566839</v>
+      </c>
+      <c r="L2">
+        <v>30.71474125354274</v>
+      </c>
+      <c r="M2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="N2">
+        <v>3.390383883168866</v>
+      </c>
+      <c r="O2">
+        <v>-0.01387513042073249</v>
+      </c>
+      <c r="P2">
+        <v>-8.671956512957804</v>
+      </c>
+      <c r="Q2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="R2">
+        <v>1.440086086211703</v>
+      </c>
+      <c r="S2">
+        <v>-0.01107663455413746</v>
+      </c>
+      <c r="T2">
+        <v>-6.922896596335914</v>
+      </c>
+      <c r="U2">
+        <v>11.96666666666667</v>
+      </c>
+      <c r="V2">
+        <v>0.04781420144416194</v>
+      </c>
+      <c r="W2">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X2">
+        <v>0.187</v>
+      </c>
+      <c r="Y2">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z2">
         <v>1.827515630549614</v>
       </c>
-      <c r="B2">
+      <c r="AA2">
         <v>0.2154475550754079</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:27">
       <c r="A3">
+        <v>31.275</v>
+      </c>
+      <c r="B3">
+        <v>27.2474158218088</v>
+      </c>
+      <c r="C3">
+        <v>0.3386139792795936</v>
+      </c>
+      <c r="D3">
+        <v>211.633737049746</v>
+      </c>
+      <c r="E3">
+        <v>31.275</v>
+      </c>
+      <c r="F3">
+        <v>5.348799467591447</v>
+      </c>
+      <c r="G3">
+        <v>0.5041554177082487</v>
+      </c>
+      <c r="H3">
+        <v>315.0971360676554</v>
+      </c>
+      <c r="I3">
+        <v>31.275</v>
+      </c>
+      <c r="J3">
+        <v>1.688308108425346</v>
+      </c>
+      <c r="K3">
+        <v>0.0418043041306348</v>
+      </c>
+      <c r="L3">
+        <v>26.12769008164675</v>
+      </c>
+      <c r="M3">
+        <v>31.275</v>
+      </c>
+      <c r="N3">
+        <v>3.447281555231097</v>
+      </c>
+      <c r="O3">
+        <v>0.00428449641917853</v>
+      </c>
+      <c r="P3">
+        <v>2.677810261986581</v>
+      </c>
+      <c r="Q3">
+        <v>31.275</v>
+      </c>
+      <c r="R3">
+        <v>1.50764104166901</v>
+      </c>
+      <c r="S3">
+        <v>-0.002560028082119969</v>
+      </c>
+      <c r="T3">
+        <v>-1.60001755132498</v>
+      </c>
+      <c r="U3">
+        <v>31.275</v>
+      </c>
+      <c r="V3">
+        <v>0.04675573865167006</v>
+      </c>
+      <c r="W3">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X3">
+        <v>0.187</v>
+      </c>
+      <c r="Y3">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z3">
         <v>1.48887951637687</v>
       </c>
-      <c r="B3">
+      <c r="AA3">
         <v>0.1234571124900812</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:27">
       <c r="A4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="B4">
+        <v>24.45007162898577</v>
+      </c>
+      <c r="C4">
+        <v>0.2114811217642963</v>
+      </c>
+      <c r="D4">
+        <v>132.1757011026852</v>
+      </c>
+      <c r="E4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="F4">
+        <v>9.283467549610641</v>
+      </c>
+      <c r="G4">
+        <v>0.3121496864284174</v>
+      </c>
+      <c r="H4">
+        <v>195.0935540177609</v>
+      </c>
+      <c r="I4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="J4">
+        <v>1.34754699161915</v>
+      </c>
+      <c r="K4">
+        <v>0.02513574561128894</v>
+      </c>
+      <c r="L4">
+        <v>15.70984100705559</v>
+      </c>
+      <c r="M4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="N4">
+        <v>3.398725620846342</v>
+      </c>
+      <c r="O4">
+        <v>0.003430249534846976</v>
+      </c>
+      <c r="P4">
+        <v>2.14390595927936</v>
+      </c>
+      <c r="Q4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="R4">
+        <v>1.524949443169466</v>
+      </c>
+      <c r="S4">
+        <v>-0.001724243040988678</v>
+      </c>
+      <c r="T4">
+        <v>-1.077651900617924</v>
+      </c>
+      <c r="U4">
+        <v>43.20833333333333</v>
+      </c>
+      <c r="V4">
+        <v>0.04545795571875192</v>
+      </c>
+      <c r="W4">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X4">
+        <v>0.187</v>
+      </c>
+      <c r="Y4">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z4">
         <v>1.476016789698704</v>
       </c>
-      <c r="B4">
+      <c r="AA4">
         <v>0.118855741834506</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:27">
       <c r="A5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="B5">
+        <v>21.10757207606494</v>
+      </c>
+      <c r="C5">
+        <v>0.1074311853982277</v>
+      </c>
+      <c r="D5">
+        <v>67.14449087389232</v>
+      </c>
+      <c r="E5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="F5">
+        <v>14.54706969502737</v>
+      </c>
+      <c r="G5">
+        <v>0.1778225045271241</v>
+      </c>
+      <c r="H5">
+        <v>111.1390653294526</v>
+      </c>
+      <c r="I5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="J5">
+        <v>0.9371021177395882</v>
+      </c>
+      <c r="K5">
+        <v>0.01317819152910302</v>
+      </c>
+      <c r="L5">
+        <v>8.236369705689388</v>
+      </c>
+      <c r="M5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.331419214454739</v>
+      </c>
+      <c r="O5">
+        <v>0.0003910554868446002</v>
+      </c>
+      <c r="P5">
+        <v>0.2444096792778751</v>
+      </c>
+      <c r="Q5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="R5">
+        <v>1.552638873514826</v>
+      </c>
+      <c r="S5">
+        <v>-0.002230521893076793</v>
+      </c>
+      <c r="T5">
+        <v>-1.394076183172996</v>
+      </c>
+      <c r="U5">
+        <v>55.25833333333333</v>
+      </c>
+      <c r="V5">
+        <v>0.04328644912022025</v>
+      </c>
+      <c r="W5">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X5">
+        <v>0.187</v>
+      </c>
+      <c r="Y5">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z5">
         <v>1.655222399976028</v>
       </c>
-      <c r="B5">
+      <c r="AA5">
         <v>0.1226663513043618</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:27">
       <c r="A6">
+        <v>67.5</v>
+      </c>
+      <c r="B6">
+        <v>17.9653907480168</v>
+      </c>
+      <c r="C6">
+        <v>0.05990876474643358</v>
+      </c>
+      <c r="D6">
+        <v>37.44297796652099</v>
+      </c>
+      <c r="E6">
+        <v>67.5</v>
+      </c>
+      <c r="F6">
+        <v>19.35413339720499</v>
+      </c>
+      <c r="G6">
+        <v>0.05418439976358887</v>
+      </c>
+      <c r="H6">
+        <v>33.86524985224304</v>
+      </c>
+      <c r="I6">
+        <v>67.5</v>
+      </c>
+      <c r="J6">
+        <v>0.5384618438489932</v>
+      </c>
+      <c r="K6">
+        <v>0.009960830865391975</v>
+      </c>
+      <c r="L6">
+        <v>6.225519290869984</v>
+      </c>
+      <c r="M6">
+        <v>67.5</v>
+      </c>
+      <c r="N6">
+        <v>3.322494941659956</v>
+      </c>
+      <c r="O6">
+        <v>0.00382891726606753</v>
+      </c>
+      <c r="P6">
+        <v>2.393073291292206</v>
+      </c>
+      <c r="Q6">
+        <v>67.5</v>
+      </c>
+      <c r="R6">
+        <v>1.628099715624201</v>
+      </c>
+      <c r="S6">
+        <v>0.0006176444458439234</v>
+      </c>
+      <c r="T6">
+        <v>0.3860277786524521</v>
+      </c>
+      <c r="U6">
+        <v>67.5</v>
+      </c>
+      <c r="V6">
+        <v>0.03980259227981757</v>
+      </c>
+      <c r="W6">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X6">
+        <v>0.187</v>
+      </c>
+      <c r="Y6">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z6">
         <v>0.9044486227170041</v>
       </c>
-      <c r="B6">
+      <c r="AA6">
         <v>0.1662666707876822</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:27">
       <c r="A7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="B7">
+        <v>20.49091926666541</v>
+      </c>
+      <c r="C7">
+        <v>0.04907686818485399</v>
+      </c>
+      <c r="D7">
+        <v>30.67304261553374</v>
+      </c>
+      <c r="E7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="F7">
+        <v>20.5491603293883</v>
+      </c>
+      <c r="G7">
+        <v>0.008583813976244191</v>
+      </c>
+      <c r="H7">
+        <v>5.364883735152619</v>
+      </c>
+      <c r="I7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="J7">
+        <v>0.7495649682695655</v>
+      </c>
+      <c r="K7">
+        <v>0.006442489787502041</v>
+      </c>
+      <c r="L7">
+        <v>4.026556117188775</v>
+      </c>
+      <c r="M7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="N7">
+        <v>3.056975792297883</v>
+      </c>
+      <c r="O7">
+        <v>0.005997025776791549</v>
+      </c>
+      <c r="P7">
+        <v>3.748141110494718</v>
+      </c>
+      <c r="Q7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="R7">
+        <v>1.510719046204363</v>
+      </c>
+      <c r="S7">
+        <v>0.00176996122259609</v>
+      </c>
+      <c r="T7">
+        <v>1.106225764122557</v>
+      </c>
+      <c r="U7">
+        <v>84.19166666666666</v>
+      </c>
+      <c r="V7">
+        <v>0.03251279955271416</v>
+      </c>
+      <c r="W7">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X7">
+        <v>0.187</v>
+      </c>
+      <c r="Y7">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z7">
         <v>0.1749054960865109</v>
       </c>
-      <c r="B7">
+      <c r="AA7">
         <v>0.1312734497082336</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:27">
       <c r="A8">
+        <v>108.75</v>
+      </c>
+      <c r="B8">
+        <v>21.27089721127272</v>
+      </c>
+      <c r="C8">
+        <v>0.03705850701877039</v>
+      </c>
+      <c r="D8">
+        <v>23.1615668867315</v>
+      </c>
+      <c r="E8">
+        <v>108.75</v>
+      </c>
+      <c r="F8">
+        <v>19.82209611782279</v>
+      </c>
+      <c r="G8">
+        <v>-0.004889364238428227</v>
+      </c>
+      <c r="H8">
+        <v>-3.055852649017642</v>
+      </c>
+      <c r="I8">
+        <v>108.75</v>
+      </c>
+      <c r="J8">
+        <v>0.5811305448626193</v>
+      </c>
+      <c r="K8">
+        <v>0.003236269766044885</v>
+      </c>
+      <c r="L8">
+        <v>2.022668603778053</v>
+      </c>
+      <c r="M8">
+        <v>108.75</v>
+      </c>
+      <c r="N8">
+        <v>2.115992577898277</v>
+      </c>
+      <c r="O8">
+        <v>0.005175723499798193</v>
+      </c>
+      <c r="P8">
+        <v>3.23482718737387</v>
+      </c>
+      <c r="Q8">
+        <v>108.75</v>
+      </c>
+      <c r="R8">
+        <v>1.112756842032569</v>
+      </c>
+      <c r="S8">
+        <v>0.002026814900215337</v>
+      </c>
+      <c r="T8">
+        <v>1.266759312634586</v>
+      </c>
+      <c r="U8">
+        <v>108.75</v>
+      </c>
+      <c r="V8">
+        <v>0.01851159136017834</v>
+      </c>
+      <c r="W8">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X8">
+        <v>0.187</v>
+      </c>
+      <c r="Y8">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z8">
         <v>-0.1319363523185575</v>
       </c>
-      <c r="B8">
+      <c r="AA8">
         <v>0.08732866017526535</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:27">
       <c r="A9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="B9">
+        <v>18.94609289579924</v>
+      </c>
+      <c r="C9">
+        <v>0.0325967080483188</v>
+      </c>
+      <c r="D9">
+        <v>20.37294253019925</v>
+      </c>
+      <c r="E9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="F9">
+        <v>18.09591007043498</v>
+      </c>
+      <c r="G9">
+        <v>-0.001046556655438954</v>
+      </c>
+      <c r="H9">
+        <v>-0.6540979096493464</v>
+      </c>
+      <c r="I9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="J9">
+        <v>0.5345486518882056</v>
+      </c>
+      <c r="K9">
+        <v>0.002213911793607398</v>
+      </c>
+      <c r="L9">
+        <v>1.383694871004624</v>
+      </c>
+      <c r="M9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.9433375833172524</v>
+      </c>
+      <c r="O9">
+        <v>0.003210574591069896</v>
+      </c>
+      <c r="P9">
+        <v>2.006609119418685</v>
+      </c>
+      <c r="Q9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="R9">
+        <v>0.5379316499324376</v>
+      </c>
+      <c r="S9">
+        <v>0.001349013428454384</v>
+      </c>
+      <c r="T9">
+        <v>0.8431333927839897</v>
+      </c>
+      <c r="U9">
+        <v>132.6833333333333</v>
+      </c>
+      <c r="V9">
+        <v>0.007853864587635479</v>
+      </c>
+      <c r="W9">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X9">
+        <v>0.187</v>
+      </c>
+      <c r="Y9">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z9">
         <v>-0.03210620697917167</v>
       </c>
-      <c r="B9">
+      <c r="AA9">
         <v>0.06791826310576116</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:27">
       <c r="A10">
+        <v>155.8</v>
+      </c>
+      <c r="B10">
+        <v>15.3549755976025</v>
+      </c>
+      <c r="C10">
+        <v>0.03389429938350274</v>
+      </c>
+      <c r="D10">
+        <v>21.18393711468921</v>
+      </c>
+      <c r="E10">
+        <v>155.8</v>
+      </c>
+      <c r="F10">
+        <v>18.57597125929983</v>
+      </c>
+      <c r="G10">
+        <v>0.009051015587529814</v>
+      </c>
+      <c r="H10">
+        <v>5.656884742206134</v>
+      </c>
+      <c r="I10">
+        <v>155.8</v>
+      </c>
+      <c r="J10">
+        <v>0.5052989898981508</v>
+      </c>
+      <c r="K10">
+        <v>0.002097627631641435</v>
+      </c>
+      <c r="L10">
+        <v>1.311017269775897</v>
+      </c>
+      <c r="M10">
+        <v>155.8</v>
+      </c>
+      <c r="N10">
+        <v>0.3394774044287155</v>
+      </c>
+      <c r="O10">
+        <v>0.001690511818875065</v>
+      </c>
+      <c r="P10">
+        <v>1.056569886796916</v>
+      </c>
+      <c r="Q10">
+        <v>155.8</v>
+      </c>
+      <c r="R10">
+        <v>0.1599015174466982</v>
+      </c>
+      <c r="S10">
+        <v>0.0007104828270319662</v>
+      </c>
+      <c r="T10">
+        <v>0.4440517668949788</v>
+      </c>
+      <c r="U10">
+        <v>155.8</v>
+      </c>
+      <c r="V10">
+        <v>0.002871702427459569</v>
+      </c>
+      <c r="W10">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X10">
+        <v>0.187</v>
+      </c>
+      <c r="Y10">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z10">
         <v>0.2670365150528878</v>
       </c>
-      <c r="B10">
+      <c r="AA10">
         <v>0.06188732824677906</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:27">
       <c r="A11">
+        <v>180.05</v>
+      </c>
+      <c r="B11">
+        <v>10.42090939386596</v>
+      </c>
+      <c r="C11">
+        <v>0.03427331525452193</v>
+      </c>
+      <c r="D11">
+        <v>21.42082203407621</v>
+      </c>
+      <c r="E11">
+        <v>180.05</v>
+      </c>
+      <c r="F11">
+        <v>23.27741664092552</v>
+      </c>
+      <c r="G11">
+        <v>0.01026363131437846</v>
+      </c>
+      <c r="H11">
+        <v>6.414769571486536</v>
+      </c>
+      <c r="I11">
+        <v>180.05</v>
+      </c>
+      <c r="J11">
+        <v>0.4830917874375125</v>
+      </c>
+      <c r="K11">
+        <v>0.002074197667774229</v>
+      </c>
+      <c r="L11">
+        <v>1.296373542358893</v>
+      </c>
+      <c r="M11">
+        <v>180.05</v>
+      </c>
+      <c r="N11">
+        <v>0.2797772672230245</v>
+      </c>
+      <c r="O11">
+        <v>0.0008203669396632581</v>
+      </c>
+      <c r="P11">
+        <v>0.5127293372895363</v>
+      </c>
+      <c r="Q11">
+        <v>180.05</v>
+      </c>
+      <c r="R11">
+        <v>0.1087809381226361</v>
+      </c>
+      <c r="S11">
+        <v>0.0001605516498447822</v>
+      </c>
+      <c r="T11">
+        <v>0.1003447811529889</v>
+      </c>
+      <c r="U11">
+        <v>180.05</v>
+      </c>
+      <c r="V11">
+        <v>0.0009231585990397621</v>
+      </c>
+      <c r="W11">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X11">
+        <v>0.187</v>
+      </c>
+      <c r="Y11">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z11">
         <v>0.2994642110971247</v>
       </c>
-      <c r="B11">
+      <c r="AA11">
         <v>0.06051931808670202</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:27">
       <c r="A12">
+        <v>204.175</v>
+      </c>
+      <c r="B12">
+        <v>7.172058130551548</v>
+      </c>
+      <c r="C12">
+        <v>0.03415467305860386</v>
+      </c>
+      <c r="D12">
+        <v>21.34667066162741</v>
+      </c>
+      <c r="E12">
+        <v>204.175</v>
+      </c>
+      <c r="F12">
+        <v>23.6130059797905</v>
+      </c>
+      <c r="G12">
+        <v>-0.003288542897588965</v>
+      </c>
+      <c r="H12">
+        <v>-2.055339310993103</v>
+      </c>
+      <c r="I12">
+        <v>204.175</v>
+      </c>
+      <c r="J12">
+        <v>0.5028225534139867</v>
+      </c>
+      <c r="K12">
+        <v>0.00229826083288501</v>
+      </c>
+      <c r="L12">
+        <v>1.436413020553131</v>
+      </c>
+      <c r="M12">
+        <v>204.175</v>
+      </c>
+      <c r="N12">
+        <v>0.2849772564049866</v>
+      </c>
+      <c r="O12">
+        <v>0.001173973695297401</v>
+      </c>
+      <c r="P12">
+        <v>0.7337335595608754</v>
+      </c>
+      <c r="Q12">
+        <v>204.175</v>
+      </c>
+      <c r="R12">
+        <v>0.1089428744250537</v>
+      </c>
+      <c r="S12">
+        <v>0.0001914660453954597</v>
+      </c>
+      <c r="T12">
+        <v>0.1196662783721623</v>
+      </c>
+      <c r="U12">
+        <v>204.175</v>
+      </c>
+      <c r="V12">
+        <v>0.0002901563028483061</v>
+      </c>
+      <c r="W12">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X12">
+        <v>0.187</v>
+      </c>
+      <c r="Y12">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z12">
         <v>-0.09628383477559162</v>
       </c>
-      <c r="B12">
+      <c r="AA12">
         <v>0.06728979161772587</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:27">
       <c r="A13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="B13">
+        <v>7.520053290222974</v>
+      </c>
+      <c r="C13">
+        <v>0.03413829344381265</v>
+      </c>
+      <c r="D13">
+        <v>21.3364334023829</v>
+      </c>
+      <c r="E13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="F13">
+        <v>17.76646548478955</v>
+      </c>
+      <c r="G13">
+        <v>-0.02014828881974829</v>
+      </c>
+      <c r="H13">
+        <v>-12.59268051234268</v>
+      </c>
+      <c r="I13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="J13">
+        <v>0.6201995378752575</v>
+      </c>
+      <c r="K13">
+        <v>0.002697883677190001</v>
+      </c>
+      <c r="L13">
+        <v>1.68617729824375</v>
+      </c>
+      <c r="M13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.285515077031304</v>
+      </c>
+      <c r="O13">
+        <v>0.001708392434754957</v>
+      </c>
+      <c r="P13">
+        <v>1.067745271721848</v>
+      </c>
+      <c r="Q13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="R13">
+        <v>0.1516541388069965</v>
+      </c>
+      <c r="S13">
+        <v>8.283680391639696E-05</v>
+      </c>
+      <c r="T13">
+        <v>0.05177300244774809</v>
+      </c>
+      <c r="U13">
+        <v>224.8083333333333</v>
+      </c>
+      <c r="V13">
+        <v>0.0001070225633892623</v>
+      </c>
+      <c r="W13">
+        <v>0.04852196256149432</v>
+      </c>
+      <c r="X13">
+        <v>0.187</v>
+      </c>
+      <c r="Y13">
+        <v>22.76488378801092</v>
+      </c>
+      <c r="Z13">
         <v>-0.5901961342300208</v>
       </c>
-      <c r="B13">
+      <c r="AA13">
         <v>0.07902807683197108</v>
       </c>
     </row>

--- a/output_files/cl_1_rollreg.xlsx
+++ b/output_files/cl_1_rollreg.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/galileo/development/Reserch/UMN_Research/CCDPA_git/CCDPApy/output_files/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8730D851-FD01-4D46-A645-B00D77D1A3C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample CL1_1" sheetId="1" r:id="rId1"/>
     <sheet name="Sample CL1_2" sheetId="2" r:id="rId2"/>
     <sheet name="Sample CL1_3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -102,8 +108,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,13 +172,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -210,7 +224,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -244,6 +258,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -278,9 +293,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -453,14 +469,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="51.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="32.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,12 +590,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11.94166666666667</v>
       </c>
       <c r="B2">
-        <v>26.464468065914</v>
+        <v>26.464468065914001</v>
       </c>
       <c r="C2">
         <v>0.1834812573705179</v>
@@ -560,34 +607,34 @@
         <v>11.94166666666667</v>
       </c>
       <c r="F2">
-        <v>1.465363731582055</v>
+        <v>1.4653637315820549</v>
       </c>
       <c r="G2">
-        <v>0.3009835510280379</v>
+        <v>0.30098355102803792</v>
       </c>
       <c r="H2">
-        <v>188.1147193925237</v>
+        <v>188.11471939252371</v>
       </c>
       <c r="I2">
         <v>11.94166666666667</v>
       </c>
       <c r="J2">
-        <v>2.17198511773186</v>
+        <v>2.1719851177318601</v>
       </c>
       <c r="K2">
-        <v>0.04118624386382463</v>
+        <v>4.1186243863824627E-2</v>
       </c>
       <c r="L2">
-        <v>25.74140241489039</v>
+        <v>25.741402414890391</v>
       </c>
       <c r="M2">
         <v>11.94166666666667</v>
       </c>
       <c r="N2">
-        <v>3.674615393087304</v>
+        <v>3.6746153930873038</v>
       </c>
       <c r="O2">
-        <v>-0.004131016721703069</v>
+        <v>-4.1310167217030692E-3</v>
       </c>
       <c r="P2">
         <v>-2.581885451064418</v>
@@ -599,19 +646,19 @@
         <v>1.543170093981413</v>
       </c>
       <c r="S2">
-        <v>-0.007188736871754157</v>
+        <v>-7.188736871754157E-3</v>
       </c>
       <c r="T2">
-        <v>-4.492960544846348</v>
+        <v>-4.4929605448463477</v>
       </c>
       <c r="U2">
         <v>11.94166666666667</v>
       </c>
       <c r="V2">
-        <v>0.04394406957217239</v>
+        <v>4.3944069572172388E-2</v>
       </c>
       <c r="W2">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X2">
         <v>0.246</v>
@@ -623,78 +670,78 @@
         <v>1.640404885716684</v>
       </c>
       <c r="AA2">
-        <v>0.2244711228496438</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>0.22447112284964379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>31.21666666666667</v>
+        <v>31.216666666666669</v>
       </c>
       <c r="B3">
-        <v>24.70071390833653</v>
+        <v>24.700713908336532</v>
       </c>
       <c r="C3">
-        <v>0.2077165476659233</v>
+        <v>0.20771654766592329</v>
       </c>
       <c r="D3">
-        <v>129.822842291202</v>
+        <v>129.82284229120199</v>
       </c>
       <c r="E3">
-        <v>31.21666666666667</v>
+        <v>31.216666666666669</v>
       </c>
       <c r="F3">
-        <v>4.910391771465919</v>
+        <v>4.9103917714659193</v>
       </c>
       <c r="G3">
-        <v>0.3582981921821558</v>
+        <v>0.35829819218215581</v>
       </c>
       <c r="H3">
         <v>223.9363701138474</v>
       </c>
       <c r="I3">
-        <v>31.21666666666667</v>
+        <v>31.216666666666669</v>
       </c>
       <c r="J3">
-        <v>1.783616778959595</v>
+        <v>1.7836167789595949</v>
       </c>
       <c r="K3">
-        <v>0.03817137209917944</v>
+        <v>3.8171372099179438E-2</v>
       </c>
       <c r="L3">
-        <v>23.85710756198715</v>
+        <v>23.857107561987149</v>
       </c>
       <c r="M3">
-        <v>31.21666666666667</v>
+        <v>31.216666666666669</v>
       </c>
       <c r="N3">
-        <v>3.698616547930725</v>
+        <v>3.6986165479307251</v>
       </c>
       <c r="O3">
-        <v>-0.001171397856565125</v>
+        <v>-1.1713978565651251E-3</v>
       </c>
       <c r="P3">
-        <v>-0.7321236603532029</v>
+        <v>-0.73212366035320287</v>
       </c>
       <c r="Q3">
-        <v>31.21666666666667</v>
+        <v>31.216666666666669</v>
       </c>
       <c r="R3">
-        <v>1.606874380638957</v>
+        <v>1.6068743806389569</v>
       </c>
       <c r="S3">
-        <v>-0.005655473617463895</v>
+        <v>-5.6554736174638954E-3</v>
       </c>
       <c r="T3">
-        <v>-3.534671010914934</v>
+        <v>-3.5346710109149342</v>
       </c>
       <c r="U3">
-        <v>31.21666666666667</v>
+        <v>31.216666666666669</v>
       </c>
       <c r="V3">
-        <v>0.04287186115226366</v>
+        <v>4.2871861152263657E-2</v>
       </c>
       <c r="W3">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X3">
         <v>0.246</v>
@@ -706,78 +753,78 @@
         <v>1.724938124614017</v>
       </c>
       <c r="AA3">
-        <v>0.1837666402995085</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>0.18376664029950851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>43.06666666666666</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="B4">
-        <v>22.72044665611333</v>
+        <v>22.720446656113332</v>
       </c>
       <c r="C4">
         <v>0.1730135009637663</v>
       </c>
       <c r="D4">
-        <v>108.1334381023539</v>
+        <v>108.13343810235391</v>
       </c>
       <c r="E4">
-        <v>43.06666666666666</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="F4">
-        <v>7.913183818061047</v>
+        <v>7.9131838180610474</v>
       </c>
       <c r="G4">
-        <v>0.2789828406523852</v>
+        <v>0.27898284065238521</v>
       </c>
       <c r="H4">
-        <v>174.3642754077407</v>
+        <v>174.36427540774071</v>
       </c>
       <c r="I4">
-        <v>43.06666666666666</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="J4">
         <v>1.434904112022561</v>
       </c>
       <c r="K4">
-        <v>0.0279970938975286</v>
+        <v>2.7997093897528601E-2</v>
       </c>
       <c r="L4">
-        <v>17.49818368595538</v>
+        <v>17.498183685955379</v>
       </c>
       <c r="M4">
-        <v>43.06666666666666</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="N4">
         <v>3.692636417845637</v>
       </c>
       <c r="O4">
-        <v>0.0009382019411371182</v>
+        <v>9.3820194113711816E-4</v>
       </c>
       <c r="P4">
-        <v>0.5863762132106988</v>
+        <v>0.58637621321069877</v>
       </c>
       <c r="Q4">
-        <v>43.06666666666666</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="R4">
         <v>1.652805673072606</v>
       </c>
       <c r="S4">
-        <v>-0.003589309885880224</v>
+        <v>-3.5893098858802239E-3</v>
       </c>
       <c r="T4">
         <v>-2.24331867867514</v>
       </c>
       <c r="U4">
-        <v>43.06666666666666</v>
+        <v>43.066666666666663</v>
       </c>
       <c r="V4">
-        <v>0.04164200225948948</v>
+        <v>4.1642002259489483E-2</v>
       </c>
       <c r="W4">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X4">
         <v>0.246</v>
@@ -792,75 +839,75 @@
         <v>0.16182028420656</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>55.11666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="B5">
-        <v>19.42147724616814</v>
+        <v>19.421477246168141</v>
       </c>
       <c r="C5">
         <v>0.1213339760705</v>
       </c>
       <c r="D5">
-        <v>75.83373504406251</v>
+        <v>75.833735044062507</v>
       </c>
       <c r="E5">
-        <v>55.11666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="F5">
-        <v>12.53990666316147</v>
+        <v>12.539906663161471</v>
       </c>
       <c r="G5">
-        <v>0.1784590864404688</v>
+        <v>0.17845908644046879</v>
       </c>
       <c r="H5">
-        <v>111.536929025293</v>
+        <v>111.53692902529301</v>
       </c>
       <c r="I5">
-        <v>55.11666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="J5">
-        <v>0.9892218385020177</v>
+        <v>0.98922183850201773</v>
       </c>
       <c r="K5">
-        <v>0.01563388392753554</v>
+        <v>1.5633883927535539E-2</v>
       </c>
       <c r="L5">
-        <v>9.771177454709713</v>
+        <v>9.7711774547097132</v>
       </c>
       <c r="M5">
-        <v>55.11666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="N5">
-        <v>3.658841120921864</v>
+        <v>3.6588411209218639</v>
       </c>
       <c r="O5">
-        <v>0.001254621641783432</v>
+        <v>1.254621641783432E-3</v>
       </c>
       <c r="P5">
-        <v>0.7841385261146452</v>
+        <v>0.78413852611464518</v>
       </c>
       <c r="Q5">
-        <v>55.11666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="R5">
         <v>1.703068834307836</v>
       </c>
       <c r="S5">
-        <v>-0.002056715149285784</v>
+        <v>-2.056715149285784E-3</v>
       </c>
       <c r="T5">
-        <v>-1.285446968303615</v>
+        <v>-1.2854469683036149</v>
       </c>
       <c r="U5">
-        <v>55.11666666666667</v>
+        <v>55.116666666666667</v>
       </c>
       <c r="V5">
-        <v>0.03966574665568444</v>
+        <v>3.9665746655684439E-2</v>
       </c>
       <c r="W5">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X5">
         <v>0.246</v>
@@ -872,30 +919,30 @@
         <v>1.470808855194663</v>
       </c>
       <c r="AA5">
-        <v>0.128850009155322</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>0.12885000915532199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67.2</v>
       </c>
       <c r="B6">
-        <v>16.194188310282</v>
+        <v>16.194188310282001</v>
       </c>
       <c r="C6">
-        <v>0.06535148068426014</v>
+        <v>6.5351480684260138E-2</v>
       </c>
       <c r="D6">
-        <v>40.84467542766259</v>
+        <v>40.844675427662587</v>
       </c>
       <c r="E6">
         <v>67.2</v>
       </c>
       <c r="F6">
-        <v>17.3965773173135</v>
+        <v>17.396577317313501</v>
       </c>
       <c r="G6">
-        <v>0.0642986662467135</v>
+        <v>6.4298666246713501E-2</v>
       </c>
       <c r="H6">
         <v>40.18666640419594</v>
@@ -904,22 +951,22 @@
         <v>67.2</v>
       </c>
       <c r="J6">
-        <v>0.5557338106397609</v>
+        <v>0.55573381063976091</v>
       </c>
       <c r="K6">
-        <v>0.01170466310903404</v>
+        <v>1.1704663109034039E-2</v>
       </c>
       <c r="L6">
-        <v>7.315414443146272</v>
+        <v>7.3154144431462722</v>
       </c>
       <c r="M6">
         <v>67.2</v>
       </c>
       <c r="N6">
-        <v>3.585214936184679</v>
+        <v>3.5852149361846788</v>
       </c>
       <c r="O6">
-        <v>0.004551270612492784</v>
+        <v>4.5512706124927844E-3</v>
       </c>
       <c r="P6">
         <v>2.844544132807989</v>
@@ -928,10 +975,10 @@
         <v>67.2</v>
       </c>
       <c r="R6">
-        <v>1.742328358187362</v>
+        <v>1.7423283581873621</v>
       </c>
       <c r="S6">
-        <v>0.001035393129494717</v>
+        <v>1.0353931294947169E-3</v>
       </c>
       <c r="T6">
         <v>0.6471207059341979</v>
@@ -940,10 +987,10 @@
         <v>67.2</v>
       </c>
       <c r="V6">
-        <v>0.03667052682460685</v>
+        <v>3.667052682460685E-2</v>
       </c>
       <c r="W6">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X6">
         <v>0.246</v>
@@ -952,81 +999,81 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z6">
-        <v>0.983889968115134</v>
+        <v>0.98388996811513396</v>
       </c>
       <c r="AA6">
         <v>0.1791032580513986</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>83.64166666666667</v>
+        <v>83.641666666666666</v>
       </c>
       <c r="B7">
-        <v>18.99827682456566</v>
+        <v>18.998276824565661</v>
       </c>
       <c r="C7">
-        <v>0.0491456412222712</v>
+        <v>4.9145641222271198E-2</v>
       </c>
       <c r="D7">
         <v>30.7160257639195</v>
       </c>
       <c r="E7">
-        <v>83.64166666666667</v>
+        <v>83.641666666666666</v>
       </c>
       <c r="F7">
-        <v>18.87903781676443</v>
+        <v>18.879037816764431</v>
       </c>
       <c r="G7">
-        <v>0.01177918859392358</v>
+        <v>1.177918859392358E-2</v>
       </c>
       <c r="H7">
-        <v>7.361992871202239</v>
+        <v>7.3619928712022391</v>
       </c>
       <c r="I7">
-        <v>83.64166666666667</v>
+        <v>83.641666666666666</v>
       </c>
       <c r="J7">
-        <v>0.7642962741627783</v>
+        <v>0.76429627416277834</v>
       </c>
       <c r="K7">
-        <v>0.006685496454028435</v>
+        <v>6.6854964540284346E-3</v>
       </c>
       <c r="L7">
-        <v>4.178435283767771</v>
+        <v>4.1784352837677714</v>
       </c>
       <c r="M7">
-        <v>83.64166666666667</v>
+        <v>83.641666666666666</v>
       </c>
       <c r="N7">
-        <v>3.296424940256451</v>
+        <v>3.2964249402564509</v>
       </c>
       <c r="O7">
-        <v>0.006369661632534023</v>
+        <v>6.369661632534023E-3</v>
       </c>
       <c r="P7">
-        <v>3.981038520333764</v>
+        <v>3.9810385203337639</v>
       </c>
       <c r="Q7">
-        <v>83.64166666666667</v>
+        <v>83.641666666666666</v>
       </c>
       <c r="R7">
-        <v>1.595585395961333</v>
+        <v>1.5955853959613331</v>
       </c>
       <c r="S7">
-        <v>0.002120172289833798</v>
+        <v>2.120172289833798E-3</v>
       </c>
       <c r="T7">
         <v>1.325107681146124</v>
       </c>
       <c r="U7">
-        <v>83.64166666666667</v>
+        <v>83.641666666666666</v>
       </c>
       <c r="V7">
-        <v>0.03064650032770702</v>
+        <v>3.0646500327707021E-2</v>
       </c>
       <c r="W7">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X7">
         <v>0.246</v>
@@ -1041,75 +1088,75 @@
         <v>0.136034372281194</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>108.3166666666667</v>
+        <v>108.31666666666671</v>
       </c>
       <c r="B8">
-        <v>20.12793520596943</v>
+        <v>20.127935205969429</v>
       </c>
       <c r="C8">
-        <v>0.03686007708012692</v>
+        <v>3.6860077080126917E-2</v>
       </c>
       <c r="D8">
         <v>23.03754817507933</v>
       </c>
       <c r="E8">
-        <v>108.3166666666667</v>
+        <v>108.31666666666671</v>
       </c>
       <c r="F8">
-        <v>18.70717928508854</v>
+        <v>18.707179285088539</v>
       </c>
       <c r="G8">
-        <v>-0.002946617693043906</v>
+        <v>-2.946617693043906E-3</v>
       </c>
       <c r="H8">
-        <v>-1.841636058152441</v>
+        <v>-1.8416360581524409</v>
       </c>
       <c r="I8">
-        <v>108.3166666666667</v>
+        <v>108.31666666666671</v>
       </c>
       <c r="J8">
-        <v>0.5895448632384097</v>
+        <v>0.58954486323840971</v>
       </c>
       <c r="K8">
-        <v>0.00330388519688149</v>
+        <v>3.3038851968814902E-3</v>
       </c>
       <c r="L8">
         <v>2.064928248050931</v>
       </c>
       <c r="M8">
-        <v>108.3166666666667</v>
+        <v>108.31666666666671</v>
       </c>
       <c r="N8">
         <v>2.28683443110722</v>
       </c>
       <c r="O8">
-        <v>0.00585710389900579</v>
+        <v>5.8571038990057897E-3</v>
       </c>
       <c r="P8">
-        <v>3.660689936878618</v>
+        <v>3.6606899368786179</v>
       </c>
       <c r="Q8">
-        <v>108.3166666666667</v>
+        <v>108.31666666666671</v>
       </c>
       <c r="R8">
         <v>1.153346650057292</v>
       </c>
       <c r="S8">
-        <v>0.002199715412266986</v>
+        <v>2.1997154122669858E-3</v>
       </c>
       <c r="T8">
-        <v>1.374822132666866</v>
+        <v>1.3748221326668659</v>
       </c>
       <c r="U8">
-        <v>108.3166666666667</v>
+        <v>108.31666666666671</v>
       </c>
       <c r="V8">
-        <v>0.01872977464335854</v>
+        <v>1.8729774643358541E-2</v>
       </c>
       <c r="W8">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X8">
         <v>0.246</v>
@@ -1118,13 +1165,13 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z8">
-        <v>-0.07994062754232743</v>
+        <v>-7.9940627542327433E-2</v>
       </c>
       <c r="AA8">
-        <v>0.08963316028068689</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>8.9633160280686894E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>132.4666666666667</v>
       </c>
@@ -1132,67 +1179,67 @@
         <v>18.11168022664036</v>
       </c>
       <c r="C9">
-        <v>0.03358088357625979</v>
+        <v>3.3580883576259789E-2</v>
       </c>
       <c r="D9">
-        <v>20.98805223516237</v>
+        <v>20.988052235162371</v>
       </c>
       <c r="E9">
         <v>132.4666666666667</v>
       </c>
       <c r="F9">
-        <v>17.32794827745582</v>
+        <v>17.327948277455821</v>
       </c>
       <c r="G9">
-        <v>-0.001084426473982014</v>
+        <v>-1.0844264739820141E-3</v>
       </c>
       <c r="H9">
-        <v>-0.6777665462387586</v>
+        <v>-0.67776654623875865</v>
       </c>
       <c r="I9">
         <v>132.4666666666667</v>
       </c>
       <c r="J9">
-        <v>0.5407002798615287</v>
+        <v>0.54070027986152869</v>
       </c>
       <c r="K9">
-        <v>0.002325461204036661</v>
+        <v>2.3254612040366609E-3</v>
       </c>
       <c r="L9">
-        <v>1.453413252522913</v>
+        <v>1.4534132525229131</v>
       </c>
       <c r="M9">
         <v>132.4666666666667</v>
       </c>
       <c r="N9">
-        <v>0.918624854376985</v>
+        <v>0.91862485437698504</v>
       </c>
       <c r="O9">
-        <v>0.003685249405817284</v>
+        <v>3.6852494058172841E-3</v>
       </c>
       <c r="P9">
-        <v>2.303280878635802</v>
+        <v>2.3032808786358019</v>
       </c>
       <c r="Q9">
         <v>132.4666666666667</v>
       </c>
       <c r="R9">
-        <v>0.5422862257784896</v>
+        <v>0.54228622577848962</v>
       </c>
       <c r="S9">
-        <v>0.001475050693567205</v>
+        <v>1.4750506935672051E-3</v>
       </c>
       <c r="T9">
-        <v>0.9219066834795029</v>
+        <v>0.92190668347950289</v>
       </c>
       <c r="U9">
         <v>132.4666666666667</v>
       </c>
       <c r="V9">
-        <v>0.008782411740088534</v>
+        <v>8.7824117400885342E-3</v>
       </c>
       <c r="W9">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X9">
         <v>0.246</v>
@@ -1201,13 +1248,13 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z9">
-        <v>-0.03229297024062392</v>
+        <v>-3.2292970240623921E-2</v>
       </c>
       <c r="AA9">
-        <v>0.06924955380508986</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>6.9249553805089861E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>155.6166666666667</v>
       </c>
@@ -1215,19 +1262,19 @@
         <v>14.90986038821066</v>
       </c>
       <c r="C10">
-        <v>0.03406530122389032</v>
+        <v>3.4065301223890322E-2</v>
       </c>
       <c r="D10">
-        <v>21.29081326493145</v>
+        <v>21.290813264931451</v>
       </c>
       <c r="E10">
         <v>155.6166666666667</v>
       </c>
       <c r="F10">
-        <v>17.20131752677454</v>
+        <v>17.201317526774542</v>
       </c>
       <c r="G10">
-        <v>0.004388685080093958</v>
+        <v>4.3886850800939582E-3</v>
       </c>
       <c r="H10">
         <v>2.742928175058724</v>
@@ -1236,10 +1283,10 @@
         <v>155.6166666666667</v>
       </c>
       <c r="J10">
-        <v>0.5091771775394567</v>
+        <v>0.50917717753945668</v>
       </c>
       <c r="K10">
-        <v>0.002150016757665581</v>
+        <v>2.1500167576655811E-3</v>
       </c>
       <c r="L10">
         <v>1.343760473540988</v>
@@ -1248,10 +1295,10 @@
         <v>155.6166666666667</v>
       </c>
       <c r="N10">
-        <v>0.2800599798058893</v>
+        <v>0.28005997980588931</v>
       </c>
       <c r="O10">
-        <v>0.001686196919114053</v>
+        <v>1.6861969191140529E-3</v>
       </c>
       <c r="P10">
         <v>1.053873074446283</v>
@@ -1260,22 +1307,22 @@
         <v>155.6166666666667</v>
       </c>
       <c r="R10">
-        <v>0.1678304547239682</v>
+        <v>0.16783045472396821</v>
       </c>
       <c r="S10">
-        <v>0.0007098825881335767</v>
+        <v>7.0988258813357668E-4</v>
       </c>
       <c r="T10">
-        <v>0.4436766175834854</v>
+        <v>0.44367661758348542</v>
       </c>
       <c r="U10">
         <v>155.6166666666667</v>
       </c>
       <c r="V10">
-        <v>0.003567551714932859</v>
+        <v>3.567551714932859E-3</v>
       </c>
       <c r="W10">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X10">
         <v>0.246</v>
@@ -1284,13 +1331,13 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z10">
-        <v>0.1288315359740936</v>
+        <v>0.12883153597409361</v>
       </c>
       <c r="AA10">
-        <v>0.06311456762219247</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>6.3114567622192475E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>179.7</v>
       </c>
@@ -1298,46 +1345,46 @@
         <v>10.0896485861317</v>
       </c>
       <c r="C11">
-        <v>0.03442044162858311</v>
+        <v>3.4420441628583112E-2</v>
       </c>
       <c r="D11">
-        <v>21.51277601786444</v>
+        <v>21.512776017864439</v>
       </c>
       <c r="E11">
         <v>179.7</v>
       </c>
       <c r="F11">
-        <v>19.11219846278705</v>
+        <v>19.112198462787049</v>
       </c>
       <c r="G11">
-        <v>0.004427999513151144</v>
+        <v>4.4279995131511441E-3</v>
       </c>
       <c r="H11">
-        <v>2.767499695719465</v>
+        <v>2.7674996957194651</v>
       </c>
       <c r="I11">
         <v>179.7</v>
       </c>
       <c r="J11">
-        <v>0.4830917874396135</v>
+        <v>0.48309178743961351</v>
       </c>
       <c r="K11">
-        <v>0.002051207355454922</v>
+        <v>2.0512073554549222E-3</v>
       </c>
       <c r="L11">
-        <v>1.282004597159326</v>
+        <v>1.2820045971593259</v>
       </c>
       <c r="M11">
         <v>179.7</v>
       </c>
       <c r="N11">
-        <v>0.289091406254552</v>
+        <v>0.28909140625455199</v>
       </c>
       <c r="O11">
-        <v>0.0006621887311945289</v>
+        <v>6.6218873119452894E-4</v>
       </c>
       <c r="P11">
-        <v>0.4138679569965806</v>
+        <v>0.41386795699658058</v>
       </c>
       <c r="Q11">
         <v>179.7</v>
@@ -1346,19 +1393,19 @@
         <v>0.1137129147213207</v>
       </c>
       <c r="S11">
-        <v>0.0001552387745850354</v>
+        <v>1.5523877458503539E-4</v>
       </c>
       <c r="T11">
-        <v>0.09702423411564713</v>
+        <v>9.7024234115647132E-2</v>
       </c>
       <c r="U11">
         <v>179.7</v>
       </c>
       <c r="V11">
-        <v>0.001281320083908523</v>
+        <v>1.281320083908523E-3</v>
       </c>
       <c r="W11">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X11">
         <v>0.246</v>
@@ -1367,81 +1414,81 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z11">
-        <v>0.1286444712398485</v>
+        <v>0.12864447123984851</v>
       </c>
       <c r="AA11">
-        <v>0.05959270882078333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>5.9592708820783331E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>203.825</v>
+        <v>203.82499999999999</v>
       </c>
       <c r="B12">
-        <v>6.992934237822492</v>
+        <v>6.9929342378224923</v>
       </c>
       <c r="C12">
-        <v>0.03027958695467629</v>
+        <v>3.027958695467629E-2</v>
       </c>
       <c r="D12">
-        <v>18.92474184667268</v>
+        <v>18.924741846672681</v>
       </c>
       <c r="E12">
-        <v>203.825</v>
+        <v>203.82499999999999</v>
       </c>
       <c r="F12">
-        <v>18.30150628948467</v>
+        <v>18.301506289484671</v>
       </c>
       <c r="G12">
-        <v>-0.004015451500344308</v>
+        <v>-4.0154515003443083E-3</v>
       </c>
       <c r="H12">
         <v>-2.509657187715193</v>
       </c>
       <c r="I12">
-        <v>203.825</v>
+        <v>203.82499999999999</v>
       </c>
       <c r="J12">
-        <v>0.5034183026171031</v>
+        <v>0.50341830261710308</v>
       </c>
       <c r="K12">
-        <v>0.002153444289245687</v>
+        <v>2.1534442892456869E-3</v>
       </c>
       <c r="L12">
-        <v>1.345902680778554</v>
+        <v>1.3459026807785539</v>
       </c>
       <c r="M12">
-        <v>203.825</v>
+        <v>203.82499999999999</v>
       </c>
       <c r="N12">
-        <v>0.2950658329977944</v>
+        <v>0.29506583299779438</v>
       </c>
       <c r="O12">
-        <v>0.001149803892700284</v>
+        <v>1.1498038927002839E-3</v>
       </c>
       <c r="P12">
-        <v>0.7186274329376776</v>
+        <v>0.71862743293767761</v>
       </c>
       <c r="Q12">
-        <v>203.825</v>
+        <v>203.82499999999999</v>
       </c>
       <c r="R12">
         <v>0.1193174430503174</v>
       </c>
       <c r="S12">
-        <v>0.0001745563284707532</v>
+        <v>1.745563284707532E-4</v>
       </c>
       <c r="T12">
-        <v>0.1090977052942207</v>
+        <v>0.10909770529422071</v>
       </c>
       <c r="U12">
-        <v>203.825</v>
+        <v>203.82499999999999</v>
       </c>
       <c r="V12">
-        <v>0.0004435730439771102</v>
+        <v>4.4357304397711021E-4</v>
       </c>
       <c r="W12">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X12">
         <v>0.246</v>
@@ -1450,81 +1497,81 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z12">
-        <v>-0.1326124925797303</v>
+        <v>-0.13261249257973029</v>
       </c>
       <c r="AA12">
-        <v>0.07111868112563917</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>7.1118681125639169E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>224.5583333333333</v>
+        <v>224.55833333333331</v>
       </c>
       <c r="B13">
-        <v>9.05984273277512</v>
+        <v>9.0598427327751203</v>
       </c>
       <c r="C13">
-        <v>0.02318411194981003</v>
+        <v>2.318411194981003E-2</v>
       </c>
       <c r="D13">
         <v>14.49006996863127</v>
       </c>
       <c r="E13">
-        <v>224.5583333333333</v>
+        <v>224.55833333333331</v>
       </c>
       <c r="F13">
         <v>13.9836210143302</v>
       </c>
       <c r="G13">
-        <v>-0.0150918656558993</v>
+        <v>-1.50918656558993E-2</v>
       </c>
       <c r="H13">
-        <v>-9.432416034937059</v>
+        <v>-9.4324160349370594</v>
       </c>
       <c r="I13">
-        <v>224.5583333333333</v>
+        <v>224.55833333333331</v>
       </c>
       <c r="J13">
-        <v>0.6184213634691763</v>
+        <v>0.61842136346917631</v>
       </c>
       <c r="K13">
-        <v>0.002713581109321976</v>
+        <v>2.713581109321976E-3</v>
       </c>
       <c r="L13">
-        <v>1.695988193326235</v>
+        <v>1.6959881933262351</v>
       </c>
       <c r="M13">
-        <v>224.5583333333333</v>
+        <v>224.55833333333331</v>
       </c>
       <c r="N13">
-        <v>0.2890512877137544</v>
+        <v>0.28905128771375438</v>
       </c>
       <c r="O13">
-        <v>0.001735132421533526</v>
+        <v>1.7351324215335261E-3</v>
       </c>
       <c r="P13">
         <v>1.084457763458454</v>
       </c>
       <c r="Q13">
-        <v>224.5583333333333</v>
+        <v>224.55833333333331</v>
       </c>
       <c r="R13">
         <v>0.1557641739920306</v>
       </c>
       <c r="S13">
-        <v>0.0001644805070737605</v>
+        <v>1.644805070737605E-4</v>
       </c>
       <c r="T13">
         <v>0.1028003169211003</v>
       </c>
       <c r="U13">
-        <v>224.5583333333333</v>
+        <v>224.55833333333331</v>
       </c>
       <c r="V13">
-        <v>0.0001764117102281301</v>
+        <v>1.7641171022813009E-4</v>
       </c>
       <c r="W13">
-        <v>0.04476135883990286</v>
+        <v>4.4761358839902857E-2</v>
       </c>
       <c r="X13">
         <v>0.246</v>
@@ -1533,7 +1580,7 @@
         <v>22.81960602815294</v>
       </c>
       <c r="Z13">
-        <v>-0.6509572455727795</v>
+        <v>-0.65095724557277945</v>
       </c>
       <c r="AA13">
         <v>0.1170448587893491</v>
@@ -1545,14 +1592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1635,18 +1682,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11.96666666666667</v>
       </c>
       <c r="B2">
-        <v>28.42936829163183</v>
+        <v>28.429368291631832</v>
       </c>
       <c r="C2">
         <v>0.1897606017704693</v>
       </c>
       <c r="D2">
-        <v>118.6003761065433</v>
+        <v>118.60037610654329</v>
       </c>
       <c r="E2">
         <v>11.96666666666667</v>
@@ -1655,22 +1702,22 @@
         <v>1.667090200926862</v>
       </c>
       <c r="G2">
-        <v>0.2843124502742514</v>
+        <v>0.28431245027425139</v>
       </c>
       <c r="H2">
-        <v>177.6952814214071</v>
+        <v>177.69528142140709</v>
       </c>
       <c r="I2">
         <v>11.96666666666667</v>
       </c>
       <c r="J2">
-        <v>2.100308984183639</v>
+        <v>2.1003089841836391</v>
       </c>
       <c r="K2">
-        <v>0.03965904920017282</v>
+        <v>3.9659049200172818E-2</v>
       </c>
       <c r="L2">
-        <v>24.78690575010802</v>
+        <v>24.786905750108019</v>
       </c>
       <c r="M2">
         <v>11.96666666666667</v>
@@ -1679,7 +1726,7 @@
         <v>3.479567020252242</v>
       </c>
       <c r="O2">
-        <v>-0.002184222505994564</v>
+        <v>-2.1842225059945639E-3</v>
       </c>
       <c r="P2">
         <v>-1.365139066246603</v>
@@ -1688,39 +1735,39 @@
         <v>11.96666666666667</v>
       </c>
       <c r="R2">
-        <v>1.472260221648305</v>
+        <v>1.4722602216483049</v>
       </c>
       <c r="S2">
-        <v>-0.004063896948943472</v>
+        <v>-4.0638969489434724E-3</v>
       </c>
       <c r="T2">
-        <v>-2.53993559308967</v>
+        <v>-2.5399355930896701</v>
       </c>
       <c r="U2">
         <v>11.96666666666667</v>
       </c>
       <c r="V2">
-        <v>0.04493930625021484</v>
+        <v>4.493930625021484E-2</v>
       </c>
       <c r="W2">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X2">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y2">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z2">
-        <v>1.498269122365823</v>
+        <v>1.4982691223658231</v>
       </c>
       <c r="AA2">
         <v>0.2089951698622016</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="B3">
         <v>26.2298617443655</v>
@@ -1729,153 +1776,153 @@
         <v>0.2427734357845277</v>
       </c>
       <c r="D3">
-        <v>151.7333973653298</v>
+        <v>151.73339736532981</v>
       </c>
       <c r="E3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="F3">
-        <v>5.125782804030545</v>
+        <v>5.1257828040305453</v>
       </c>
       <c r="G3">
-        <v>0.4068334750122556</v>
+        <v>0.40683347501225559</v>
       </c>
       <c r="H3">
-        <v>254.2709218826597</v>
+        <v>254.27092188265971</v>
       </c>
       <c r="I3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="J3">
         <v>1.716040161530316</v>
       </c>
       <c r="K3">
-        <v>0.03486120472895438</v>
+        <v>3.4861204728954383E-2</v>
       </c>
       <c r="L3">
         <v>21.78825295559648</v>
       </c>
       <c r="M3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="N3">
-        <v>3.465086636856814</v>
+        <v>3.4650866368568138</v>
       </c>
       <c r="O3">
-        <v>0.005076124068074053</v>
+        <v>5.0761240680740529E-3</v>
       </c>
       <c r="P3">
         <v>3.172577542546283</v>
       </c>
       <c r="Q3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="R3">
-        <v>1.508792205589297</v>
+        <v>1.5087922055892971</v>
       </c>
       <c r="S3">
-        <v>-0.002964176279557481</v>
+        <v>-2.9641762795574811E-3</v>
       </c>
       <c r="T3">
         <v>-1.852610174723426</v>
       </c>
       <c r="U3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="V3">
-        <v>0.0438098392672609</v>
+        <v>4.3809839267260897E-2</v>
       </c>
       <c r="W3">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X3">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y3">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z3">
-        <v>1.675774261288366</v>
+        <v>1.6757742612883659</v>
       </c>
       <c r="AA3">
         <v>0.1435956311130154</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="B4">
-        <v>23.80973081328169</v>
+        <v>23.809730813281689</v>
       </c>
       <c r="C4">
-        <v>0.1853680038786832</v>
+        <v>0.18536800387868321</v>
       </c>
       <c r="D4">
         <v>115.855002424177</v>
       </c>
       <c r="E4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="F4">
         <v>9.023998574097746</v>
       </c>
       <c r="G4">
-        <v>0.2943732631511236</v>
+        <v>0.29437326315112361</v>
       </c>
       <c r="H4">
-        <v>183.9832894694522</v>
+        <v>183.98328946945219</v>
       </c>
       <c r="I4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="J4">
-        <v>1.370222162167103</v>
+        <v>1.3702221621671029</v>
       </c>
       <c r="K4">
-        <v>0.02464282307825796</v>
+        <v>2.464282307825796E-2</v>
       </c>
       <c r="L4">
         <v>15.40176442391123</v>
       </c>
       <c r="M4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="N4">
         <v>3.405847417493205</v>
       </c>
       <c r="O4">
-        <v>0.003265202043140597</v>
+        <v>3.265202043140597E-3</v>
       </c>
       <c r="P4">
-        <v>2.040751276962873</v>
+        <v>2.0407512769628728</v>
       </c>
       <c r="Q4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="R4">
         <v>1.522967504258866</v>
       </c>
       <c r="S4">
-        <v>-0.002629480646360249</v>
+        <v>-2.6294806463602492E-3</v>
       </c>
       <c r="T4">
-        <v>-1.643425403975156</v>
+        <v>-1.6434254039751559</v>
       </c>
       <c r="U4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="V4">
-        <v>0.04248740177528522</v>
+        <v>4.2487401775285219E-2</v>
       </c>
       <c r="W4">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X4">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y4">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z4">
         <v>1.588047866900377</v>
@@ -1884,9 +1931,9 @@
         <v>0.132940003466757</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="B5">
         <v>20.46135896207117</v>
@@ -1895,70 +1942,70 @@
         <v>0.1189004068394862</v>
       </c>
       <c r="D5">
-        <v>74.31275427467889</v>
+        <v>74.312754274678895</v>
       </c>
       <c r="E5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="F5">
-        <v>14.08198868738775</v>
+        <v>14.081988687387749</v>
       </c>
       <c r="G5">
-        <v>0.1757383511853912</v>
+        <v>0.17573835118539119</v>
       </c>
       <c r="H5">
         <v>109.8364694908695</v>
       </c>
       <c r="I5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="J5">
-        <v>0.9594640232729618</v>
+        <v>0.95946402327296176</v>
       </c>
       <c r="K5">
-        <v>0.01417745708103262</v>
+        <v>1.4177457081032621E-2</v>
       </c>
       <c r="L5">
-        <v>8.860910675645387</v>
+        <v>8.8609106756453873</v>
       </c>
       <c r="M5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="N5">
         <v>3.38224963183466</v>
       </c>
       <c r="O5">
-        <v>-0.0006775743718176682</v>
+        <v>-6.7757437181766825E-4</v>
       </c>
       <c r="P5">
-        <v>-0.4234839823860426</v>
+        <v>-0.42348398238604262</v>
       </c>
       <c r="Q5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="R5">
         <v>1.597131498797995</v>
       </c>
       <c r="S5">
-        <v>-0.003167834269610398</v>
+        <v>-3.1678342696103978E-3</v>
       </c>
       <c r="T5">
         <v>-1.979896418506498</v>
       </c>
       <c r="U5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="V5">
-        <v>0.04035718812494822</v>
+        <v>4.0357188124948221E-2</v>
       </c>
       <c r="W5">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X5">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y5">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z5">
         <v>1.478029855882961</v>
@@ -1967,18 +2014,18 @@
         <v>0.1192380872184228</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67.5</v>
       </c>
       <c r="B6">
-        <v>17.10531498267722</v>
+        <v>17.105314982677221</v>
       </c>
       <c r="C6">
-        <v>0.06267603333529424</v>
+        <v>6.2676033335294243E-2</v>
       </c>
       <c r="D6">
-        <v>39.1725208345589</v>
+        <v>39.172520834558902</v>
       </c>
       <c r="E6">
         <v>67.5</v>
@@ -1987,22 +2034,22 @@
         <v>18.51234037107843</v>
       </c>
       <c r="G6">
-        <v>0.05435191493901046</v>
+        <v>5.4351914939010461E-2</v>
       </c>
       <c r="H6">
-        <v>33.96994683688153</v>
+        <v>33.969946836881533</v>
       </c>
       <c r="I6">
         <v>67.5</v>
       </c>
       <c r="J6">
-        <v>0.54330777358046</v>
+        <v>0.54330777358046001</v>
       </c>
       <c r="K6">
-        <v>0.01072374995219135</v>
+        <v>1.072374995219135E-2</v>
       </c>
       <c r="L6">
-        <v>6.702343720119594</v>
+        <v>6.7023437201195941</v>
       </c>
       <c r="M6">
         <v>67.5</v>
@@ -2011,161 +2058,161 @@
         <v>3.382289949086196</v>
       </c>
       <c r="O6">
-        <v>0.00325856390920353</v>
+        <v>3.2585639092035301E-3</v>
       </c>
       <c r="P6">
-        <v>2.036602443252206</v>
+        <v>2.0366024432522059</v>
       </c>
       <c r="Q6">
         <v>67.5</v>
       </c>
       <c r="R6">
-        <v>1.674832103704135</v>
+        <v>1.6748321037041349</v>
       </c>
       <c r="S6">
-        <v>0.0004445194098927675</v>
+        <v>4.445194098927675E-4</v>
       </c>
       <c r="T6">
-        <v>0.2778246311829797</v>
+        <v>0.27782463118297968</v>
       </c>
       <c r="U6">
         <v>67.5</v>
       </c>
       <c r="V6">
-        <v>0.03706427657467494</v>
+        <v>3.706427657467494E-2</v>
       </c>
       <c r="W6">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X6">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y6">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z6">
-        <v>0.867188174596935</v>
+        <v>0.86718817459693498</v>
       </c>
       <c r="AA6">
-        <v>0.1710980957397726</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+        <v>0.17109809573977261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="B7">
         <v>19.88006394760853</v>
       </c>
       <c r="C7">
-        <v>0.04745741976692774</v>
+        <v>4.7457419766927737E-2</v>
       </c>
       <c r="D7">
-        <v>29.66088735432984</v>
+        <v>29.660887354329841</v>
       </c>
       <c r="E7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="F7">
         <v>19.68637318540577</v>
       </c>
       <c r="G7">
-        <v>0.01051137649104322</v>
+        <v>1.0511376491043219E-2</v>
       </c>
       <c r="H7">
-        <v>6.569610306902013</v>
+        <v>6.5696103069020131</v>
       </c>
       <c r="I7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="J7">
         <v>0.752460106266575</v>
       </c>
       <c r="K7">
-        <v>0.006607339639935214</v>
+        <v>6.6073396399352136E-3</v>
       </c>
       <c r="L7">
-        <v>4.129587274959508</v>
+        <v>4.1295872749595084</v>
       </c>
       <c r="M7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="N7">
-        <v>3.160538481273304</v>
+        <v>3.1605384812733042</v>
       </c>
       <c r="O7">
-        <v>0.005983903038855839</v>
+        <v>5.9839030388558392E-3</v>
       </c>
       <c r="P7">
         <v>3.739939399284899</v>
       </c>
       <c r="Q7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="R7">
-        <v>1.549463204045768</v>
+        <v>1.5494632040457681</v>
       </c>
       <c r="S7">
-        <v>0.001881883900394574</v>
+        <v>1.881883900394574E-3</v>
       </c>
       <c r="T7">
         <v>1.176177437746609</v>
       </c>
       <c r="U7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="V7">
-        <v>0.03042702720823747</v>
+        <v>3.0427027208237471E-2</v>
       </c>
       <c r="W7">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X7">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y7">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z7">
-        <v>0.2214906866548277</v>
+        <v>0.22149068665482771</v>
       </c>
       <c r="AA7">
-        <v>0.1392266935788986</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+        <v>0.13922669357889861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>108.75</v>
       </c>
       <c r="B8">
-        <v>21.17297861495428</v>
+        <v>21.172978614954278</v>
       </c>
       <c r="C8">
-        <v>0.03635002947426386</v>
+        <v>3.6350029474263863E-2</v>
       </c>
       <c r="D8">
-        <v>22.71876842141491</v>
+        <v>22.718768421414911</v>
       </c>
       <c r="E8">
         <v>108.75</v>
       </c>
       <c r="F8">
-        <v>19.40477370168196</v>
+        <v>19.404773701681961</v>
       </c>
       <c r="G8">
-        <v>-0.003870504697224041</v>
+        <v>-3.870504697224041E-3</v>
       </c>
       <c r="H8">
-        <v>-2.419065435765026</v>
+        <v>-2.4190654357650261</v>
       </c>
       <c r="I8">
         <v>108.75</v>
       </c>
       <c r="J8">
-        <v>0.5842087431335032</v>
+        <v>0.58420874313350324</v>
       </c>
       <c r="K8">
-        <v>0.003290642982662169</v>
+        <v>3.290642982662169E-3</v>
       </c>
       <c r="L8">
         <v>2.056651864163856</v>
@@ -2177,244 +2224,244 @@
         <v>2.215023482284372</v>
       </c>
       <c r="O8">
-        <v>0.005422382780312451</v>
+        <v>5.4223827803124508E-3</v>
       </c>
       <c r="P8">
-        <v>3.388989237695282</v>
+        <v>3.3889892376952822</v>
       </c>
       <c r="Q8">
         <v>108.75</v>
       </c>
       <c r="R8">
-        <v>1.144308189635978</v>
+        <v>1.1443081896359779</v>
       </c>
       <c r="S8">
-        <v>0.002082651662361101</v>
+        <v>2.0826516623611009E-3</v>
       </c>
       <c r="T8">
-        <v>1.301657288975688</v>
+        <v>1.3016572889756881</v>
       </c>
       <c r="U8">
         <v>108.75</v>
       </c>
       <c r="V8">
-        <v>0.0179367597421665</v>
+        <v>1.7936759742166498E-2</v>
       </c>
       <c r="W8">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X8">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y8">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z8">
-        <v>-0.1064787223890531</v>
+        <v>-0.10647872238905309</v>
       </c>
       <c r="AA8">
-        <v>0.09052655610615042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>9.0526556106150416E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="B9">
-        <v>19.04122798973047</v>
+        <v>19.041227989730469</v>
       </c>
       <c r="C9">
-        <v>0.03306306960575398</v>
+        <v>3.3063069605753982E-2</v>
       </c>
       <c r="D9">
-        <v>20.66441850359624</v>
+        <v>20.664418503596242</v>
       </c>
       <c r="E9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="F9">
-        <v>17.77951770963337</v>
+        <v>17.779517709633371</v>
       </c>
       <c r="G9">
-        <v>-0.0007457836876509657</v>
+        <v>-7.4578368765096565E-4</v>
       </c>
       <c r="H9">
-        <v>-0.4661148047818535</v>
+        <v>-0.46611480478185352</v>
       </c>
       <c r="I9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="J9">
-        <v>0.5396263269136846</v>
+        <v>0.53962632691368462</v>
       </c>
       <c r="K9">
-        <v>0.002218777105075077</v>
+        <v>2.218777105075077E-3</v>
       </c>
       <c r="L9">
         <v>1.386735690671923</v>
       </c>
       <c r="M9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="N9">
         <v>0.9815495242529314</v>
       </c>
       <c r="O9">
-        <v>0.003352771854998026</v>
+        <v>3.352771854998026E-3</v>
       </c>
       <c r="P9">
-        <v>2.095482409373766</v>
+        <v>2.0954824093737661</v>
       </c>
       <c r="Q9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="R9">
-        <v>0.5490867889118785</v>
+        <v>0.54908678891187845</v>
       </c>
       <c r="S9">
-        <v>0.001451772454262378</v>
+        <v>1.451772454262378E-3</v>
       </c>
       <c r="T9">
-        <v>0.9073577839139859</v>
+        <v>0.90735778391398592</v>
       </c>
       <c r="U9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="V9">
-        <v>0.00811455429849694</v>
+        <v>8.1145542984969402E-3</v>
       </c>
       <c r="W9">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X9">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y9">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z9">
-        <v>-0.02255639589861846</v>
+        <v>-2.2556395898618461E-2</v>
       </c>
       <c r="AA9">
-        <v>0.06710741414913704</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>6.710741414913704E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="B10">
         <v>15.07013198223396</v>
       </c>
       <c r="C10">
-        <v>0.03403886284502689</v>
+        <v>3.4038862845026892E-2</v>
       </c>
       <c r="D10">
-        <v>21.27428927814181</v>
+        <v>21.274289278141811</v>
       </c>
       <c r="E10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="F10">
         <v>17.89920657673548</v>
       </c>
       <c r="G10">
-        <v>0.005335600438979069</v>
+        <v>5.3356004389790686E-3</v>
       </c>
       <c r="H10">
-        <v>3.334750274361918</v>
+        <v>3.3347502743619182</v>
       </c>
       <c r="I10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="J10">
-        <v>0.5094851842665351</v>
+        <v>0.50948518426653511</v>
       </c>
       <c r="K10">
-        <v>0.002051045057977245</v>
+        <v>2.051045057977245E-3</v>
       </c>
       <c r="L10">
-        <v>1.281903161235778</v>
+        <v>1.2819031612357781</v>
       </c>
       <c r="M10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="N10">
-        <v>0.3528510201203962</v>
+        <v>0.35285102012039621</v>
       </c>
       <c r="O10">
-        <v>0.001661038761792541</v>
+        <v>1.661038761792541E-3</v>
       </c>
       <c r="P10">
         <v>1.038149226120338</v>
       </c>
       <c r="Q10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="R10">
-        <v>0.138720015096389</v>
+        <v>0.13872001509638901</v>
       </c>
       <c r="S10">
-        <v>0.0007144915587298448</v>
+        <v>7.1449155872984477E-4</v>
       </c>
       <c r="T10">
-        <v>0.446557224206153</v>
+        <v>0.44655722420615301</v>
       </c>
       <c r="U10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="V10">
-        <v>0.003185513008352371</v>
+        <v>3.1855130083523709E-3</v>
       </c>
       <c r="W10">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X10">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y10">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z10">
-        <v>0.1567502552382888</v>
+        <v>0.15675025523828881</v>
       </c>
       <c r="AA10">
-        <v>0.06025598056302001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>6.0255980563020013E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>180.05</v>
       </c>
       <c r="B11">
-        <v>9.916290341002073</v>
+        <v>9.9162903410020729</v>
       </c>
       <c r="C11">
-        <v>0.03361173513579165</v>
+        <v>3.3611735135791652E-2</v>
       </c>
       <c r="D11">
-        <v>21.00733445986978</v>
+        <v>21.007334459869782</v>
       </c>
       <c r="E11">
         <v>180.05</v>
       </c>
       <c r="F11">
-        <v>20.66833765244071</v>
+        <v>20.668337652440709</v>
       </c>
       <c r="G11">
-        <v>0.006553343100653763</v>
+        <v>6.5533431006537628E-3</v>
       </c>
       <c r="H11">
-        <v>4.095839437908602</v>
+        <v>4.0958394379086016</v>
       </c>
       <c r="I11">
         <v>180.05</v>
       </c>
       <c r="J11">
-        <v>0.4830917874396135</v>
+        <v>0.48309178743961351</v>
       </c>
       <c r="K11">
-        <v>0.002057808261715355</v>
+        <v>2.0578082617153551E-3</v>
       </c>
       <c r="L11">
         <v>1.286130163572097</v>
@@ -2423,10 +2470,10 @@
         <v>180.05</v>
       </c>
       <c r="N11">
-        <v>0.2854315670333831</v>
+        <v>0.28543156703338313</v>
       </c>
       <c r="O11">
-        <v>0.000860299533741198</v>
+        <v>8.6029953374119796E-4</v>
       </c>
       <c r="P11">
         <v>0.5376872085882487</v>
@@ -2435,200 +2482,200 @@
         <v>180.05</v>
       </c>
       <c r="R11">
-        <v>0.09259908407781983</v>
+        <v>9.2599084077819832E-2</v>
       </c>
       <c r="S11">
-        <v>9.136595868026578E-05</v>
+        <v>9.1365958680265778E-5</v>
       </c>
       <c r="T11">
-        <v>0.05710372417516611</v>
+        <v>5.7103724175166112E-2</v>
       </c>
       <c r="U11">
         <v>180.05</v>
       </c>
       <c r="V11">
-        <v>0.001101272354029181</v>
+        <v>1.1012723540291809E-3</v>
       </c>
       <c r="W11">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X11">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y11">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z11">
         <v>0.1949718773570662</v>
       </c>
       <c r="AA11">
-        <v>0.06122291078999029</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>6.1222910789990287E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="B12">
-        <v>7.383975873326262</v>
+        <v>7.3839758733262624</v>
       </c>
       <c r="C12">
-        <v>0.03247098287569329</v>
+        <v>3.2470982875693291E-2</v>
       </c>
       <c r="D12">
-        <v>20.29436429730831</v>
+        <v>20.294364297308309</v>
       </c>
       <c r="E12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="F12">
         <v>20.31517195283536</v>
       </c>
       <c r="G12">
-        <v>-0.003760214771943125</v>
+        <v>-3.7602147719431249E-3</v>
       </c>
       <c r="H12">
-        <v>-2.350134232464453</v>
+        <v>-2.3501342324644532</v>
       </c>
       <c r="I12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="J12">
-        <v>0.5051834813064325</v>
+        <v>0.50518348130643254</v>
       </c>
       <c r="K12">
-        <v>0.002350104858533906</v>
+        <v>2.3501048585339059E-3</v>
       </c>
       <c r="L12">
         <v>1.468815536583691</v>
       </c>
       <c r="M12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="N12">
-        <v>0.2636299245727226</v>
+        <v>0.26362992457272261</v>
       </c>
       <c r="O12">
-        <v>0.001252343001673166</v>
+        <v>1.2523430016731659E-3</v>
       </c>
       <c r="P12">
         <v>0.7827143760457288</v>
       </c>
       <c r="Q12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="R12">
-        <v>0.1435141449835863</v>
+        <v>0.14351414498358631</v>
       </c>
       <c r="S12">
-        <v>6.974854161599345E-05</v>
+        <v>6.9748541615993452E-5</v>
       </c>
       <c r="T12">
-        <v>0.04359283850999591</v>
+        <v>4.3592838509995908E-2</v>
       </c>
       <c r="U12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="V12">
-        <v>0.0003710097893812097</v>
+        <v>3.710097893812097E-4</v>
       </c>
       <c r="W12">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X12">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y12">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z12">
         <v>-0.1158023083667695</v>
       </c>
       <c r="AA12">
-        <v>0.07237553810830646</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>7.2375538108306464E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="B13">
-        <v>8.658554785932171</v>
+        <v>8.6585547859321714</v>
       </c>
       <c r="C13">
-        <v>0.03274771334299254</v>
+        <v>3.2747713342992542E-2</v>
       </c>
       <c r="D13">
-        <v>20.46732083937034</v>
+        <v>20.467320839370341</v>
       </c>
       <c r="E13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="F13">
-        <v>16.00635362067607</v>
+        <v>16.006353620676069</v>
       </c>
       <c r="G13">
-        <v>-0.01669810892572607</v>
+        <v>-1.6698108925726068E-2</v>
       </c>
       <c r="H13">
         <v>-10.43631807857879</v>
       </c>
       <c r="I13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="J13">
-        <v>0.6248344051266331</v>
+        <v>0.62483440512663313</v>
       </c>
       <c r="K13">
-        <v>0.002810780639181395</v>
+        <v>2.810780639181395E-3</v>
       </c>
       <c r="L13">
         <v>1.756737899488372</v>
       </c>
       <c r="M13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="N13">
-        <v>0.2621983335887245</v>
+        <v>0.26219833358872452</v>
       </c>
       <c r="O13">
-        <v>0.001618940838388643</v>
+        <v>1.6189408383886429E-3</v>
       </c>
       <c r="P13">
-        <v>1.011838023992902</v>
+        <v>1.0118380239929019</v>
       </c>
       <c r="Q13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="R13">
-        <v>0.1793845107701748</v>
+        <v>0.17938451077017481</v>
       </c>
       <c r="S13">
-        <v>0.000225986148890575</v>
+        <v>2.2598614889057499E-4</v>
       </c>
       <c r="T13">
-        <v>0.1412413430566093</v>
+        <v>0.14124134305660929</v>
       </c>
       <c r="U13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="V13">
-        <v>0.0001450095720218679</v>
+        <v>1.450095720218679E-4</v>
       </c>
       <c r="W13">
-        <v>0.04577032625094275</v>
+        <v>4.5770326250942753E-2</v>
       </c>
       <c r="X13">
-        <v>0.2415557830092118</v>
+        <v>0.24155578300921179</v>
       </c>
       <c r="Y13">
-        <v>22.83088499460615</v>
+        <v>22.830884994606151</v>
       </c>
       <c r="Z13">
-        <v>-0.5099015235303195</v>
+        <v>-0.50990152353031948</v>
       </c>
       <c r="AA13">
-        <v>0.08583135591001059</v>
+        <v>8.5831355910010593E-2</v>
       </c>
     </row>
   </sheetData>
@@ -2637,14 +2684,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2727,18 +2774,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11.96666666666667</v>
       </c>
       <c r="B2">
-        <v>29.52335563705086</v>
+        <v>29.523355637050859</v>
       </c>
       <c r="C2">
-        <v>0.2280999939334092</v>
+        <v>0.22809999393340921</v>
       </c>
       <c r="D2">
-        <v>142.5624962083807</v>
+        <v>142.56249620838071</v>
       </c>
       <c r="E2">
         <v>11.96666666666667</v>
@@ -2747,22 +2794,22 @@
         <v>1.717937207502978</v>
       </c>
       <c r="G2">
-        <v>0.4168563042415773</v>
+        <v>0.41685630424157732</v>
       </c>
       <c r="H2">
-        <v>260.5351901509858</v>
+        <v>260.53519015098578</v>
       </c>
       <c r="I2">
         <v>11.96666666666667</v>
       </c>
       <c r="J2">
-        <v>2.04545251875395</v>
+        <v>2.0454525187539501</v>
       </c>
       <c r="K2">
-        <v>0.04914358600566839</v>
+        <v>4.9143586005668392E-2</v>
       </c>
       <c r="L2">
-        <v>30.71474125354274</v>
+        <v>30.714741253542741</v>
       </c>
       <c r="M2">
         <v>11.96666666666667</v>
@@ -2771,7 +2818,7 @@
         <v>3.390383883168866</v>
       </c>
       <c r="O2">
-        <v>-0.01387513042073249</v>
+        <v>-1.387513042073249E-2</v>
       </c>
       <c r="P2">
         <v>-8.671956512957804</v>
@@ -2780,22 +2827,22 @@
         <v>11.96666666666667</v>
       </c>
       <c r="R2">
-        <v>1.440086086211703</v>
+        <v>1.4400860862117031</v>
       </c>
       <c r="S2">
-        <v>-0.01107663455413746</v>
+        <v>-1.107663455413746E-2</v>
       </c>
       <c r="T2">
-        <v>-6.922896596335914</v>
+        <v>-6.9228965963359137</v>
       </c>
       <c r="U2">
         <v>11.96666666666667</v>
       </c>
       <c r="V2">
-        <v>0.04781420144416194</v>
+        <v>4.7814201444161937E-2</v>
       </c>
       <c r="W2">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X2">
         <v>0.187</v>
@@ -2804,81 +2851,81 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z2">
-        <v>1.827515630549614</v>
+        <v>1.8275156305496141</v>
       </c>
       <c r="AA2">
-        <v>0.2154475550754079</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+        <v>0.21544755507540789</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="B3">
-        <v>27.2474158218088</v>
+        <v>27.247415821808801</v>
       </c>
       <c r="C3">
-        <v>0.3386139792795936</v>
+        <v>0.33861397927959358</v>
       </c>
       <c r="D3">
         <v>211.633737049746</v>
       </c>
       <c r="E3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="F3">
         <v>5.348799467591447</v>
       </c>
       <c r="G3">
-        <v>0.5041554177082487</v>
+        <v>0.50415541770824868</v>
       </c>
       <c r="H3">
-        <v>315.0971360676554</v>
+        <v>315.09713606765541</v>
       </c>
       <c r="I3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="J3">
         <v>1.688308108425346</v>
       </c>
       <c r="K3">
-        <v>0.0418043041306348</v>
+        <v>4.1804304130634802E-2</v>
       </c>
       <c r="L3">
-        <v>26.12769008164675</v>
+        <v>26.127690081646751</v>
       </c>
       <c r="M3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="N3">
-        <v>3.447281555231097</v>
+        <v>3.4472815552310969</v>
       </c>
       <c r="O3">
-        <v>0.00428449641917853</v>
+        <v>4.28449641917853E-3</v>
       </c>
       <c r="P3">
-        <v>2.677810261986581</v>
+        <v>2.6778102619865809</v>
       </c>
       <c r="Q3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="R3">
         <v>1.50764104166901</v>
       </c>
       <c r="S3">
-        <v>-0.002560028082119969</v>
+        <v>-2.560028082119969E-3</v>
       </c>
       <c r="T3">
-        <v>-1.60001755132498</v>
+        <v>-1.6000175513249799</v>
       </c>
       <c r="U3">
-        <v>31.275</v>
+        <v>31.274999999999999</v>
       </c>
       <c r="V3">
-        <v>0.04675573865167006</v>
+        <v>4.6755738651670063E-2</v>
       </c>
       <c r="W3">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X3">
         <v>0.187</v>
@@ -2890,78 +2937,78 @@
         <v>1.48887951637687</v>
       </c>
       <c r="AA3">
-        <v>0.1234571124900812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+        <v>0.12345711249008121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="B4">
-        <v>24.45007162898577</v>
+        <v>24.450071628985771</v>
       </c>
       <c r="C4">
-        <v>0.2114811217642963</v>
+        <v>0.21148112176429629</v>
       </c>
       <c r="D4">
         <v>132.1757011026852</v>
       </c>
       <c r="E4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="F4">
-        <v>9.283467549610641</v>
+        <v>9.2834675496106414</v>
       </c>
       <c r="G4">
-        <v>0.3121496864284174</v>
+        <v>0.31214968642841739</v>
       </c>
       <c r="H4">
-        <v>195.0935540177609</v>
+        <v>195.09355401776091</v>
       </c>
       <c r="I4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="J4">
         <v>1.34754699161915</v>
       </c>
       <c r="K4">
-        <v>0.02513574561128894</v>
+        <v>2.5135745611288941E-2</v>
       </c>
       <c r="L4">
-        <v>15.70984100705559</v>
+        <v>15.709841007055591</v>
       </c>
       <c r="M4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="N4">
-        <v>3.398725620846342</v>
+        <v>3.3987256208463421</v>
       </c>
       <c r="O4">
-        <v>0.003430249534846976</v>
+        <v>3.430249534846976E-3</v>
       </c>
       <c r="P4">
-        <v>2.14390595927936</v>
+        <v>2.1439059592793601</v>
       </c>
       <c r="Q4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="R4">
-        <v>1.524949443169466</v>
+        <v>1.5249494431694659</v>
       </c>
       <c r="S4">
-        <v>-0.001724243040988678</v>
+        <v>-1.724243040988678E-3</v>
       </c>
       <c r="T4">
-        <v>-1.077651900617924</v>
+        <v>-1.0776519006179239</v>
       </c>
       <c r="U4">
-        <v>43.20833333333333</v>
+        <v>43.208333333333329</v>
       </c>
       <c r="V4">
-        <v>0.04545795571875192</v>
+        <v>4.545795571875192E-2</v>
       </c>
       <c r="W4">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X4">
         <v>0.187</v>
@@ -2973,12 +3020,12 @@
         <v>1.476016789698704</v>
       </c>
       <c r="AA4">
-        <v>0.118855741834506</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+        <v>0.11885574183450601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="B5">
         <v>21.10757207606494</v>
@@ -2987,64 +3034,64 @@
         <v>0.1074311853982277</v>
       </c>
       <c r="D5">
-        <v>67.14449087389232</v>
+        <v>67.144490873892323</v>
       </c>
       <c r="E5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="F5">
-        <v>14.54706969502737</v>
+        <v>14.547069695027369</v>
       </c>
       <c r="G5">
-        <v>0.1778225045271241</v>
+        <v>0.17782250452712409</v>
       </c>
       <c r="H5">
-        <v>111.1390653294526</v>
+        <v>111.13906532945261</v>
       </c>
       <c r="I5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="J5">
-        <v>0.9371021177395882</v>
+        <v>0.93710211773958818</v>
       </c>
       <c r="K5">
-        <v>0.01317819152910302</v>
+        <v>1.3178191529103021E-2</v>
       </c>
       <c r="L5">
-        <v>8.236369705689388</v>
+        <v>8.2363697056893876</v>
       </c>
       <c r="M5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="N5">
-        <v>3.331419214454739</v>
+        <v>3.3314192144547392</v>
       </c>
       <c r="O5">
-        <v>0.0003910554868446002</v>
+        <v>3.9105548684460019E-4</v>
       </c>
       <c r="P5">
         <v>0.2444096792778751</v>
       </c>
       <c r="Q5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="R5">
         <v>1.552638873514826</v>
       </c>
       <c r="S5">
-        <v>-0.002230521893076793</v>
+        <v>-2.2305218930767931E-3</v>
       </c>
       <c r="T5">
         <v>-1.394076183172996</v>
       </c>
       <c r="U5">
-        <v>55.25833333333333</v>
+        <v>55.258333333333333</v>
       </c>
       <c r="V5">
-        <v>0.04328644912022025</v>
+        <v>4.3286449120220248E-2</v>
       </c>
       <c r="W5">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X5">
         <v>0.187</v>
@@ -3056,21 +3103,21 @@
         <v>1.655222399976028</v>
       </c>
       <c r="AA5">
-        <v>0.1226663513043618</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+        <v>0.12266635130436181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>67.5</v>
       </c>
       <c r="B6">
-        <v>17.9653907480168</v>
+        <v>17.965390748016802</v>
       </c>
       <c r="C6">
-        <v>0.05990876474643358</v>
+        <v>5.9908764746433578E-2</v>
       </c>
       <c r="D6">
-        <v>37.44297796652099</v>
+        <v>37.442977966520992</v>
       </c>
       <c r="E6">
         <v>67.5</v>
@@ -3079,10 +3126,10 @@
         <v>19.35413339720499</v>
       </c>
       <c r="G6">
-        <v>0.05418439976358887</v>
+        <v>5.4184399763588867E-2</v>
       </c>
       <c r="H6">
-        <v>33.86524985224304</v>
+        <v>33.865249852243039</v>
       </c>
       <c r="I6">
         <v>67.5</v>
@@ -3091,22 +3138,22 @@
         <v>0.5384618438489932</v>
       </c>
       <c r="K6">
-        <v>0.009960830865391975</v>
+        <v>9.9608308653919755E-3</v>
       </c>
       <c r="L6">
-        <v>6.225519290869984</v>
+        <v>6.2255192908699843</v>
       </c>
       <c r="M6">
         <v>67.5</v>
       </c>
       <c r="N6">
-        <v>3.322494941659956</v>
+        <v>3.3224949416599561</v>
       </c>
       <c r="O6">
-        <v>0.00382891726606753</v>
+        <v>3.8289172660675298E-3</v>
       </c>
       <c r="P6">
-        <v>2.393073291292206</v>
+        <v>2.3930732912922061</v>
       </c>
       <c r="Q6">
         <v>67.5</v>
@@ -3115,19 +3162,19 @@
         <v>1.628099715624201</v>
       </c>
       <c r="S6">
-        <v>0.0006176444458439234</v>
+        <v>6.176444458439234E-4</v>
       </c>
       <c r="T6">
-        <v>0.3860277786524521</v>
+        <v>0.38602777865245208</v>
       </c>
       <c r="U6">
         <v>67.5</v>
       </c>
       <c r="V6">
-        <v>0.03980259227981757</v>
+        <v>3.980259227981757E-2</v>
       </c>
       <c r="W6">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X6">
         <v>0.187</v>
@@ -3142,75 +3189,75 @@
         <v>0.1662666707876822</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="B7">
-        <v>20.49091926666541</v>
+        <v>20.490919266665411</v>
       </c>
       <c r="C7">
-        <v>0.04907686818485399</v>
+        <v>4.9076868184853989E-2</v>
       </c>
       <c r="D7">
-        <v>30.67304261553374</v>
+        <v>30.673042615533738</v>
       </c>
       <c r="E7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="F7">
         <v>20.5491603293883</v>
       </c>
       <c r="G7">
-        <v>0.008583813976244191</v>
+        <v>8.5838139762441906E-3</v>
       </c>
       <c r="H7">
-        <v>5.364883735152619</v>
+        <v>5.3648837351526186</v>
       </c>
       <c r="I7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="J7">
-        <v>0.7495649682695655</v>
+        <v>0.74956496826956553</v>
       </c>
       <c r="K7">
-        <v>0.006442489787502041</v>
+        <v>6.442489787502041E-3</v>
       </c>
       <c r="L7">
-        <v>4.026556117188775</v>
+        <v>4.0265561171887754</v>
       </c>
       <c r="M7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="N7">
-        <v>3.056975792297883</v>
+        <v>3.0569757922978829</v>
       </c>
       <c r="O7">
-        <v>0.005997025776791549</v>
+        <v>5.9970257767915491E-3</v>
       </c>
       <c r="P7">
-        <v>3.748141110494718</v>
+        <v>3.7481411104947182</v>
       </c>
       <c r="Q7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="R7">
-        <v>1.510719046204363</v>
+        <v>1.5107190462043629</v>
       </c>
       <c r="S7">
-        <v>0.00176996122259609</v>
+        <v>1.76996122259609E-3</v>
       </c>
       <c r="T7">
         <v>1.106225764122557</v>
       </c>
       <c r="U7">
-        <v>84.19166666666666</v>
+        <v>84.191666666666663</v>
       </c>
       <c r="V7">
-        <v>0.03251279955271416</v>
+        <v>3.2512799552714161E-2</v>
       </c>
       <c r="W7">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X7">
         <v>0.187</v>
@@ -3225,63 +3272,63 @@
         <v>0.1312734497082336</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>108.75</v>
       </c>
       <c r="B8">
-        <v>21.27089721127272</v>
+        <v>21.270897211272722</v>
       </c>
       <c r="C8">
-        <v>0.03705850701877039</v>
+        <v>3.7058507018770392E-2</v>
       </c>
       <c r="D8">
-        <v>23.1615668867315</v>
+        <v>23.161566886731499</v>
       </c>
       <c r="E8">
         <v>108.75</v>
       </c>
       <c r="F8">
-        <v>19.82209611782279</v>
+        <v>19.822096117822792</v>
       </c>
       <c r="G8">
-        <v>-0.004889364238428227</v>
+        <v>-4.889364238428227E-3</v>
       </c>
       <c r="H8">
-        <v>-3.055852649017642</v>
+        <v>-3.0558526490176421</v>
       </c>
       <c r="I8">
         <v>108.75</v>
       </c>
       <c r="J8">
-        <v>0.5811305448626193</v>
+        <v>0.58113054486261928</v>
       </c>
       <c r="K8">
-        <v>0.003236269766044885</v>
+        <v>3.236269766044885E-3</v>
       </c>
       <c r="L8">
-        <v>2.022668603778053</v>
+        <v>2.0226686037780528</v>
       </c>
       <c r="M8">
         <v>108.75</v>
       </c>
       <c r="N8">
-        <v>2.115992577898277</v>
+        <v>2.1159925778982771</v>
       </c>
       <c r="O8">
-        <v>0.005175723499798193</v>
+        <v>5.1757234997981934E-3</v>
       </c>
       <c r="P8">
-        <v>3.23482718737387</v>
+        <v>3.2348271873738699</v>
       </c>
       <c r="Q8">
         <v>108.75</v>
       </c>
       <c r="R8">
-        <v>1.112756842032569</v>
+        <v>1.1127568420325691</v>
       </c>
       <c r="S8">
-        <v>0.002026814900215337</v>
+        <v>2.0268149002153372E-3</v>
       </c>
       <c r="T8">
         <v>1.266759312634586</v>
@@ -3290,10 +3337,10 @@
         <v>108.75</v>
       </c>
       <c r="V8">
-        <v>0.01851159136017834</v>
+        <v>1.8511591360178339E-2</v>
       </c>
       <c r="W8">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X8">
         <v>0.187</v>
@@ -3302,81 +3349,81 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z8">
-        <v>-0.1319363523185575</v>
+        <v>-0.13193635231855749</v>
       </c>
       <c r="AA8">
-        <v>0.08732866017526535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+        <v>8.7328660175265346E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="B9">
-        <v>18.94609289579924</v>
+        <v>18.946092895799239</v>
       </c>
       <c r="C9">
-        <v>0.0325967080483188</v>
+        <v>3.2596708048318802E-2</v>
       </c>
       <c r="D9">
         <v>20.37294253019925</v>
       </c>
       <c r="E9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="F9">
-        <v>18.09591007043498</v>
+        <v>18.095910070434979</v>
       </c>
       <c r="G9">
-        <v>-0.001046556655438954</v>
+        <v>-1.0465566554389539E-3</v>
       </c>
       <c r="H9">
-        <v>-0.6540979096493464</v>
+        <v>-0.65409790964934644</v>
       </c>
       <c r="I9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="J9">
-        <v>0.5345486518882056</v>
+        <v>0.53454865188820555</v>
       </c>
       <c r="K9">
-        <v>0.002213911793607398</v>
+        <v>2.2139117936073979E-3</v>
       </c>
       <c r="L9">
         <v>1.383694871004624</v>
       </c>
       <c r="M9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="N9">
-        <v>0.9433375833172524</v>
+        <v>0.94333758331725237</v>
       </c>
       <c r="O9">
-        <v>0.003210574591069896</v>
+        <v>3.210574591069896E-3</v>
       </c>
       <c r="P9">
-        <v>2.006609119418685</v>
+        <v>2.0066091194186848</v>
       </c>
       <c r="Q9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="R9">
-        <v>0.5379316499324376</v>
+        <v>0.53793164993243758</v>
       </c>
       <c r="S9">
-        <v>0.001349013428454384</v>
+        <v>1.349013428454384E-3</v>
       </c>
       <c r="T9">
-        <v>0.8431333927839897</v>
+        <v>0.84313339278398969</v>
       </c>
       <c r="U9">
-        <v>132.6833333333333</v>
+        <v>132.68333333333331</v>
       </c>
       <c r="V9">
-        <v>0.007853864587635479</v>
+        <v>7.8538645876354788E-3</v>
       </c>
       <c r="W9">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X9">
         <v>0.187</v>
@@ -3385,81 +3432,81 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z9">
-        <v>-0.03210620697917167</v>
+        <v>-3.2106206979171673E-2</v>
       </c>
       <c r="AA9">
-        <v>0.06791826310576116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+        <v>6.7918263105761156E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="B10">
         <v>15.3549755976025</v>
       </c>
       <c r="C10">
-        <v>0.03389429938350274</v>
+        <v>3.3894299383502739E-2</v>
       </c>
       <c r="D10">
-        <v>21.18393711468921</v>
+        <v>21.183937114689211</v>
       </c>
       <c r="E10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="F10">
-        <v>18.57597125929983</v>
+        <v>18.575971259299831</v>
       </c>
       <c r="G10">
-        <v>0.009051015587529814</v>
+        <v>9.0510155875298138E-3</v>
       </c>
       <c r="H10">
-        <v>5.656884742206134</v>
+        <v>5.6568847422061337</v>
       </c>
       <c r="I10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="J10">
-        <v>0.5052989898981508</v>
+        <v>0.50529898989815081</v>
       </c>
       <c r="K10">
-        <v>0.002097627631641435</v>
+        <v>2.0976276316414348E-3</v>
       </c>
       <c r="L10">
-        <v>1.311017269775897</v>
+        <v>1.3110172697758971</v>
       </c>
       <c r="M10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="N10">
-        <v>0.3394774044287155</v>
+        <v>0.33947740442871549</v>
       </c>
       <c r="O10">
-        <v>0.001690511818875065</v>
+        <v>1.690511818875065E-3</v>
       </c>
       <c r="P10">
         <v>1.056569886796916</v>
       </c>
       <c r="Q10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="R10">
         <v>0.1599015174466982</v>
       </c>
       <c r="S10">
-        <v>0.0007104828270319662</v>
+        <v>7.1048282703196615E-4</v>
       </c>
       <c r="T10">
-        <v>0.4440517668949788</v>
+        <v>0.44405176689497883</v>
       </c>
       <c r="U10">
-        <v>155.8</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="V10">
-        <v>0.002871702427459569</v>
+        <v>2.8717024274595689E-3</v>
       </c>
       <c r="W10">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X10">
         <v>0.187</v>
@@ -3468,13 +3515,13 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z10">
-        <v>0.2670365150528878</v>
+        <v>0.26703651505288778</v>
       </c>
       <c r="AA10">
-        <v>0.06188732824677906</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+        <v>6.1887328246779061E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>180.05</v>
       </c>
@@ -3482,7 +3529,7 @@
         <v>10.42090939386596</v>
       </c>
       <c r="C11">
-        <v>0.03427331525452193</v>
+        <v>3.427331525452193E-2</v>
       </c>
       <c r="D11">
         <v>21.42082203407621</v>
@@ -3491,10 +3538,10 @@
         <v>180.05</v>
       </c>
       <c r="F11">
-        <v>23.27741664092552</v>
+        <v>23.277416640925519</v>
       </c>
       <c r="G11">
-        <v>0.01026363131437846</v>
+        <v>1.026363131437846E-2</v>
       </c>
       <c r="H11">
         <v>6.414769571486536</v>
@@ -3503,25 +3550,25 @@
         <v>180.05</v>
       </c>
       <c r="J11">
-        <v>0.4830917874375125</v>
+        <v>0.48309178743751252</v>
       </c>
       <c r="K11">
-        <v>0.002074197667774229</v>
+        <v>2.074197667774229E-3</v>
       </c>
       <c r="L11">
-        <v>1.296373542358893</v>
+        <v>1.2963735423588929</v>
       </c>
       <c r="M11">
         <v>180.05</v>
       </c>
       <c r="N11">
-        <v>0.2797772672230245</v>
+        <v>0.27977726722302448</v>
       </c>
       <c r="O11">
-        <v>0.0008203669396632581</v>
+        <v>8.2036693966325812E-4</v>
       </c>
       <c r="P11">
-        <v>0.5127293372895363</v>
+        <v>0.51272933728953629</v>
       </c>
       <c r="Q11">
         <v>180.05</v>
@@ -3530,19 +3577,19 @@
         <v>0.1087809381226361</v>
       </c>
       <c r="S11">
-        <v>0.0001605516498447822</v>
+        <v>1.6055164984478219E-4</v>
       </c>
       <c r="T11">
-        <v>0.1003447811529889</v>
+        <v>0.10034478115298889</v>
       </c>
       <c r="U11">
         <v>180.05</v>
       </c>
       <c r="V11">
-        <v>0.0009231585990397621</v>
+        <v>9.2315859903976212E-4</v>
       </c>
       <c r="W11">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X11">
         <v>0.187</v>
@@ -3551,81 +3598,81 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z11">
-        <v>0.2994642110971247</v>
+        <v>0.29946421109712468</v>
       </c>
       <c r="AA11">
-        <v>0.06051931808670202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+        <v>6.0519318086702023E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="B12">
-        <v>7.172058130551548</v>
+        <v>7.1720581305515481</v>
       </c>
       <c r="C12">
-        <v>0.03415467305860386</v>
+        <v>3.4154673058603861E-2</v>
       </c>
       <c r="D12">
         <v>21.34667066162741</v>
       </c>
       <c r="E12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="F12">
-        <v>23.6130059797905</v>
+        <v>23.613005979790501</v>
       </c>
       <c r="G12">
-        <v>-0.003288542897588965</v>
+        <v>-3.2885428975889652E-3</v>
       </c>
       <c r="H12">
-        <v>-2.055339310993103</v>
+        <v>-2.0553393109931029</v>
       </c>
       <c r="I12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="J12">
-        <v>0.5028225534139867</v>
+        <v>0.50282255341398674</v>
       </c>
       <c r="K12">
-        <v>0.00229826083288501</v>
+        <v>2.29826083288501E-3</v>
       </c>
       <c r="L12">
-        <v>1.436413020553131</v>
+        <v>1.4364130205531309</v>
       </c>
       <c r="M12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="N12">
-        <v>0.2849772564049866</v>
+        <v>0.28497725640498661</v>
       </c>
       <c r="O12">
-        <v>0.001173973695297401</v>
+        <v>1.1739736952974011E-3</v>
       </c>
       <c r="P12">
-        <v>0.7337335595608754</v>
+        <v>0.73373355956087538</v>
       </c>
       <c r="Q12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="R12">
         <v>0.1089428744250537</v>
       </c>
       <c r="S12">
-        <v>0.0001914660453954597</v>
+        <v>1.9146604539545969E-4</v>
       </c>
       <c r="T12">
         <v>0.1196662783721623</v>
       </c>
       <c r="U12">
-        <v>204.175</v>
+        <v>204.17500000000001</v>
       </c>
       <c r="V12">
-        <v>0.0002901563028483061</v>
+        <v>2.9015630284830608E-4</v>
       </c>
       <c r="W12">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X12">
         <v>0.187</v>
@@ -3634,81 +3681,81 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z12">
-        <v>-0.09628383477559162</v>
+        <v>-9.6283834775591617E-2</v>
       </c>
       <c r="AA12">
-        <v>0.06728979161772587</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+        <v>6.7289791617725872E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="B13">
-        <v>7.520053290222974</v>
+        <v>7.5200532902229744</v>
       </c>
       <c r="C13">
-        <v>0.03413829344381265</v>
+        <v>3.4138293443812653E-2</v>
       </c>
       <c r="D13">
-        <v>21.3364334023829</v>
+        <v>21.336433402382902</v>
       </c>
       <c r="E13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="F13">
-        <v>17.76646548478955</v>
+        <v>17.766465484789549</v>
       </c>
       <c r="G13">
-        <v>-0.02014828881974829</v>
+        <v>-2.014828881974829E-2</v>
       </c>
       <c r="H13">
         <v>-12.59268051234268</v>
       </c>
       <c r="I13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="J13">
         <v>0.6201995378752575</v>
       </c>
       <c r="K13">
-        <v>0.002697883677190001</v>
+        <v>2.697883677190001E-3</v>
       </c>
       <c r="L13">
         <v>1.68617729824375</v>
       </c>
       <c r="M13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="N13">
-        <v>0.285515077031304</v>
+        <v>0.28551507703130402</v>
       </c>
       <c r="O13">
-        <v>0.001708392434754957</v>
+        <v>1.7083924347549571E-3</v>
       </c>
       <c r="P13">
-        <v>1.067745271721848</v>
+        <v>1.0677452717218481</v>
       </c>
       <c r="Q13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="R13">
-        <v>0.1516541388069965</v>
+        <v>0.15165413880699649</v>
       </c>
       <c r="S13">
-        <v>8.283680391639696E-05</v>
+        <v>8.2836803916396957E-5</v>
       </c>
       <c r="T13">
-        <v>0.05177300244774809</v>
+        <v>5.1773002447748087E-2</v>
       </c>
       <c r="U13">
-        <v>224.8083333333333</v>
+        <v>224.80833333333331</v>
       </c>
       <c r="V13">
-        <v>0.0001070225633892623</v>
+        <v>1.0702256338926231E-4</v>
       </c>
       <c r="W13">
-        <v>0.04852196256149432</v>
+        <v>4.8521962561494318E-2</v>
       </c>
       <c r="X13">
         <v>0.187</v>
@@ -3717,10 +3764,10 @@
         <v>22.76488378801092</v>
       </c>
       <c r="Z13">
-        <v>-0.5901961342300208</v>
+        <v>-0.59019613423002082</v>
       </c>
       <c r="AA13">
-        <v>0.07902807683197108</v>
+        <v>7.9028076831971078E-2</v>
       </c>
     </row>
   </sheetData>
